--- a/Data Analyst/Evaluasi Plan/W1 W2 Juli 2024 1.xlsx
+++ b/Data Analyst/Evaluasi Plan/W1 W2 Juli 2024 1.xlsx
@@ -655,22 +655,22 @@
         <v>93680000</v>
       </c>
       <c r="P2" t="n">
-        <v>132486192.730029</v>
+        <v>131028089.3546601</v>
       </c>
       <c r="Q2" t="n">
-        <v>3932485.345643849</v>
+        <v>3889205.589180802</v>
       </c>
       <c r="R2" t="n">
-        <v>83741727.87952119</v>
+        <v>82820091.49187763</v>
       </c>
       <c r="S2" t="n">
-        <v>36158811.3194105</v>
+        <v>35760858.26673582</v>
       </c>
       <c r="T2" t="n">
         <v>25093047.05783327</v>
       </c>
       <c r="U2" t="n">
-        <v>406637748.2034056</v>
+        <v>403816775.6312553</v>
       </c>
       <c r="V2" t="n">
         <v>392475628.3305</v>
@@ -679,34 +679,34 @@
         <v>125225483.8709677</v>
       </c>
       <c r="X2" t="n">
-        <v>281412264.3324378</v>
+        <v>278591291.7602876</v>
       </c>
       <c r="Y2" t="n">
-        <v>126856.1369337754</v>
+        <v>125462.816766452</v>
       </c>
       <c r="Z2" t="n">
-        <v>284366.9672363024</v>
+        <v>281237.3095246072</v>
       </c>
       <c r="AA2" t="n">
-        <v>145920.9307922148</v>
+        <v>144589.9832159024</v>
       </c>
       <c r="AB2" t="n">
-        <v>53194.91486008317</v>
+        <v>52940.49586059919</v>
       </c>
       <c r="AC2" t="n">
-        <v>119244.3422666423</v>
+        <v>118671.356219022</v>
       </c>
       <c r="AD2" t="n">
-        <v>61189.4046075847</v>
+        <v>61011.42637483328</v>
       </c>
       <c r="AE2" t="n">
-        <v>6009.686184398835</v>
+        <v>5957.574876789206</v>
       </c>
       <c r="AF2" t="n">
-        <v>13471.60867110082</v>
+        <v>13354.49317034308</v>
       </c>
       <c r="AG2" t="n">
-        <v>6912.862262662098</v>
+        <v>6865.824262864529</v>
       </c>
     </row>
     <row r="3">
@@ -764,22 +764,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>32766663.01077078</v>
+        <v>31951570.5388128</v>
       </c>
       <c r="Q3" t="n">
-        <v>1134177.936324623</v>
+        <v>1105964.508016249</v>
       </c>
       <c r="R3" t="n">
-        <v>22527080.82518927</v>
+        <v>21966704.75058671</v>
       </c>
       <c r="S3" t="n">
-        <v>8232624.083087981</v>
+        <v>8027832.099467945</v>
       </c>
       <c r="T3" t="n">
         <v>5154743.882508781</v>
       </c>
       <c r="U3" t="n">
-        <v>69815289.73788144</v>
+        <v>68206815.77939248</v>
       </c>
       <c r="V3" t="n">
         <v>137098560.777112</v>
@@ -788,34 +788,34 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>69815289.73788144</v>
+        <v>68206815.77939248</v>
       </c>
       <c r="Y3" t="n">
-        <v>8563.662241577542</v>
+        <v>8447.555994350261</v>
       </c>
       <c r="Z3" t="n">
-        <v>299529.6710771597</v>
+        <v>292078.6718727919</v>
       </c>
       <c r="AA3" t="n">
-        <v>176998.4549396249</v>
+        <v>175577.8112655417</v>
       </c>
       <c r="AB3" t="n">
-        <v>3036.556356894839</v>
+        <v>2994.084698908887</v>
       </c>
       <c r="AC3" t="n">
-        <v>106209.0845166752</v>
+        <v>103522.0462482673</v>
       </c>
       <c r="AD3" t="n">
-        <v>62761.20757052118</v>
+        <v>62230.40587474724</v>
       </c>
       <c r="AE3" t="n">
-        <v>422.6952018787068</v>
+        <v>418.8349359888452</v>
       </c>
       <c r="AF3" t="n">
-        <v>14784.53390769174</v>
+        <v>14481.43722508191</v>
       </c>
       <c r="AG3" t="n">
-        <v>8736.495617456971</v>
+        <v>8705.254086702369</v>
       </c>
     </row>
     <row r="4">
@@ -982,22 +982,22 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>19719350.73479461</v>
+        <v>19613077.27235492</v>
       </c>
       <c r="Q5" t="n">
-        <v>117907.4494633948</v>
+        <v>117272.0110521393</v>
       </c>
       <c r="R5" t="n">
-        <v>12324594.20749604</v>
+        <v>12258173.29348066</v>
       </c>
       <c r="S5" t="n">
-        <v>1022852.229213571</v>
+        <v>1017339.773482922</v>
       </c>
       <c r="T5" t="n">
         <v>2431540.064010307</v>
       </c>
       <c r="U5" t="n">
-        <v>36475105.02497792</v>
+        <v>36296262.75438096</v>
       </c>
       <c r="V5" t="n">
         <v>18711776.512</v>
@@ -1006,13 +1006,13 @@
         <v>858860.3400000001</v>
       </c>
       <c r="X5" t="n">
-        <v>35616244.68497792</v>
+        <v>35437402.41438095</v>
       </c>
       <c r="Y5" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z5" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1118,10 +1118,10 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z6" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18767701.81790965</v>
+        <v>18666589.61282791</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>11729813.63603492</v>
+        <v>11666618.50785969</v>
       </c>
       <c r="S7" t="n">
-        <v>2317899.18504077</v>
+        <v>2305411.353550769</v>
       </c>
       <c r="T7" t="n">
         <v>1312411.969021108</v>
       </c>
       <c r="U7" t="n">
-        <v>34772826.60800646</v>
+        <v>34596031.44325949</v>
       </c>
       <c r="V7" t="n">
         <v>194870454.56</v>
@@ -1224,16 +1224,16 @@
         <v>645000</v>
       </c>
       <c r="X7" t="n">
-        <v>34127826.60800646</v>
+        <v>33951031.44325949</v>
       </c>
       <c r="Y7" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z7" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA7" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z8" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>7495118.675779347</v>
+        <v>7454128.127842521</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4684449.172174715</v>
+        <v>4658830.079715222</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>817477.4806381927</v>
       </c>
       <c r="U9" t="n">
-        <v>13393442.40859226</v>
+        <v>13326832.76819594</v>
       </c>
       <c r="V9" t="n">
         <v>72293611.104</v>
@@ -1442,16 +1442,16 @@
         <v>396397.0800000001</v>
       </c>
       <c r="X9" t="n">
-        <v>12997045.32859225</v>
+        <v>12930435.68819594</v>
       </c>
       <c r="Y9" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z9" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA9" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>17563.96377027815</v>
+        <v>17541.93744966879</v>
       </c>
       <c r="Z10" t="n">
-        <v>237483.1501457883</v>
+        <v>236342.288579929</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1636,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4211268.114760901</v>
+        <v>4191366.011446575</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2632042.571620281</v>
+        <v>2619603.757049324</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>1487239.213212566</v>
       </c>
       <c r="U11" t="n">
-        <v>8330549.899593748</v>
+        <v>8298208.981708465</v>
       </c>
       <c r="V11" t="n">
         <v>36780460.288</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8330549.899593748</v>
+        <v>8298208.981708465</v>
       </c>
       <c r="Y11" t="n">
-        <v>44134.76005101384</v>
+        <v>43976.86324997637</v>
       </c>
       <c r="Z11" t="n">
-        <v>350499.7438930306</v>
+        <v>348843.3112165753</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>12519652.71369089</v>
+        <v>12439682.9963686</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7824782.945108685</v>
+        <v>7774801.871788307</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>970646.8507977407</v>
       </c>
       <c r="U12" t="n">
-        <v>21315082.50959732</v>
+        <v>21185131.71895465</v>
       </c>
       <c r="V12" t="n">
         <v>17425591.04</v>
@@ -1769,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>21315082.50959732</v>
+        <v>21185131.71895465</v>
       </c>
       <c r="Y12" t="n">
-        <v>36852.23791109599</v>
+        <v>37087.24793356486</v>
       </c>
       <c r="Z12" t="n">
-        <v>242096.9515667279</v>
+        <v>240550.5488649813</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1854,22 +1854,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>25879045.95742069</v>
+        <v>25670993.04865196</v>
       </c>
       <c r="Q13" t="n">
-        <v>379929.2739912891</v>
+        <v>376874.8572747557</v>
       </c>
       <c r="R13" t="n">
-        <v>16174403.72548544</v>
+        <v>16044370.65748812</v>
       </c>
       <c r="S13" t="n">
-        <v>5531331.911393025</v>
+        <v>5486863.127828744</v>
       </c>
       <c r="T13" t="n">
         <v>6529508.585424637</v>
       </c>
       <c r="U13" t="n">
-        <v>54494219.45371509</v>
+        <v>54108610.27666823</v>
       </c>
       <c r="V13" t="n">
         <v>64321731.76000001</v>
@@ -1878,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>54494219.45371509</v>
+        <v>54108610.27666823</v>
       </c>
       <c r="Y13" t="n">
-        <v>29014.03623296697</v>
+        <v>28914.47111728559</v>
       </c>
       <c r="Z13" t="n">
-        <v>142581.4717958436</v>
+        <v>141435.1973160015</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1990,10 +1990,10 @@
         <v>1339663.843053018</v>
       </c>
       <c r="Y14" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z14" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2072,22 +2072,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>610372.8042387</v>
+        <v>607139.7848618592</v>
       </c>
       <c r="Q15" t="n">
-        <v>24638.97113110396</v>
+        <v>24508.46356173144</v>
       </c>
       <c r="R15" t="n">
-        <v>419631.3029293657</v>
+        <v>417408.6021077067</v>
       </c>
       <c r="S15" t="n">
-        <v>153356.1670649734</v>
+        <v>152543.8709465421</v>
       </c>
       <c r="T15" t="n">
         <v>444430.4883829156</v>
       </c>
       <c r="U15" t="n">
-        <v>1652429.733747059</v>
+        <v>1646031.209860755</v>
       </c>
       <c r="V15" t="n">
         <v>10127628.368</v>
@@ -2096,16 +2096,16 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1652429.733747059</v>
+        <v>1646031.209860755</v>
       </c>
       <c r="Y15" t="n">
-        <v>12128.51976723833</v>
+        <v>12064.27748916241</v>
       </c>
       <c r="Z15" t="n">
-        <v>39563.96375428392</v>
+        <v>39354.40156449768</v>
       </c>
       <c r="AA15" t="n">
-        <v>2485.000017256944</v>
+        <v>2471.837482570848</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2208,31 +2208,31 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>126856.1369337754</v>
+        <v>125462.816766452</v>
       </c>
       <c r="Z16" t="n">
-        <v>284366.9672363024</v>
+        <v>281237.3095246072</v>
       </c>
       <c r="AA16" t="n">
-        <v>145920.9307922148</v>
+        <v>144589.9832159024</v>
       </c>
       <c r="AB16" t="n">
-        <v>53194.91486008317</v>
+        <v>52940.49586059919</v>
       </c>
       <c r="AC16" t="n">
-        <v>119244.3422666423</v>
+        <v>118671.356219022</v>
       </c>
       <c r="AD16" t="n">
-        <v>61189.4046075847</v>
+        <v>61011.42637483328</v>
       </c>
       <c r="AE16" t="n">
-        <v>6009.686184398835</v>
+        <v>5957.574876789206</v>
       </c>
       <c r="AF16" t="n">
-        <v>13471.60867110082</v>
+        <v>13354.49317034308</v>
       </c>
       <c r="AG16" t="n">
-        <v>6912.862262662098</v>
+        <v>6865.824262864529</v>
       </c>
     </row>
     <row r="17">
@@ -2290,22 +2290,22 @@
         <v>77740000</v>
       </c>
       <c r="P17" t="n">
-        <v>202765239.4994231</v>
+        <v>197721319.7009252</v>
       </c>
       <c r="Q17" t="n">
-        <v>7018470.596722934</v>
+        <v>6843881.486255175</v>
       </c>
       <c r="R17" t="n">
-        <v>139401102.1885538</v>
+        <v>135933407.3262731</v>
       </c>
       <c r="S17" t="n">
-        <v>50944766.43432803</v>
+        <v>49677481.58470424</v>
       </c>
       <c r="T17" t="n">
         <v>43930250.58963231</v>
       </c>
       <c r="U17" t="n">
-        <v>699086926.8086603</v>
+        <v>689133438.18779</v>
       </c>
       <c r="V17" t="n">
         <v>543259013.851444</v>
@@ -2314,34 +2314,34 @@
         <v>255027097.5</v>
       </c>
       <c r="X17" t="n">
-        <v>444059829.3086603</v>
+        <v>434106340.68779</v>
       </c>
       <c r="Y17" t="n">
-        <v>8563.662241577542</v>
+        <v>8447.555994350261</v>
       </c>
       <c r="Z17" t="n">
-        <v>299529.6710771597</v>
+        <v>292078.6718727919</v>
       </c>
       <c r="AA17" t="n">
-        <v>176998.4549396249</v>
+        <v>175577.8112655417</v>
       </c>
       <c r="AB17" t="n">
-        <v>3036.556356894839</v>
+        <v>2994.084698908887</v>
       </c>
       <c r="AC17" t="n">
-        <v>106209.0845166752</v>
+        <v>103522.0462482673</v>
       </c>
       <c r="AD17" t="n">
-        <v>62761.20757052118</v>
+        <v>62230.40587474724</v>
       </c>
       <c r="AE17" t="n">
-        <v>422.6952018787068</v>
+        <v>418.8349359888452</v>
       </c>
       <c r="AF17" t="n">
-        <v>14784.53390769174</v>
+        <v>14481.43722508191</v>
       </c>
       <c r="AG17" t="n">
-        <v>8736.495617456971</v>
+        <v>8705.254086702369</v>
       </c>
     </row>
     <row r="18">
@@ -2508,22 +2508,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>13772244.95763433</v>
+        <v>13698022.22196217</v>
       </c>
       <c r="Q19" t="n">
-        <v>82348.05994268846</v>
+        <v>81904.26168720842</v>
       </c>
       <c r="R19" t="n">
-        <v>8607653.09729882</v>
+        <v>8561263.887510303</v>
       </c>
       <c r="S19" t="n">
-        <v>714372.9854824939</v>
+        <v>710523.0164007712</v>
       </c>
       <c r="T19" t="n">
         <v>2664148.82060115</v>
       </c>
       <c r="U19" t="n">
-        <v>44484316.46095949</v>
+        <v>44359410.7481616</v>
       </c>
       <c r="V19" t="n">
         <v>37423553.024</v>
@@ -2532,13 +2532,13 @@
         <v>18643548.54</v>
       </c>
       <c r="X19" t="n">
-        <v>25840767.92095949</v>
+        <v>25715862.2081616</v>
       </c>
       <c r="Y19" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z19" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -2617,22 +2617,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>76243788.63525797</v>
+        <v>75833020.30211338</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>47652367.89639188</v>
+        <v>47395637.68818</v>
       </c>
       <c r="S20" t="n">
-        <v>9416465.439228129</v>
+        <v>9365733.623799998</v>
       </c>
       <c r="T20" t="n">
         <v>8185558.788139761</v>
       </c>
       <c r="U20" t="n">
-        <v>194580208.5990177</v>
+        <v>193861978.2422332</v>
       </c>
       <c r="V20" t="n">
         <v>366814973.32</v>
@@ -2641,16 +2641,16 @@
         <v>53082027.84</v>
       </c>
       <c r="X20" t="n">
-        <v>141498180.7590178</v>
+        <v>140779950.4022332</v>
       </c>
       <c r="Y20" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z20" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA20" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>14240725.48398076</v>
+        <v>14162843.44290079</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8900453.427131958</v>
+        <v>8851777.151458923</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>2387419.799610084</v>
       </c>
       <c r="U21" t="n">
-        <v>49873778.33072281</v>
+        <v>49747220.0139698</v>
       </c>
       <c r="V21" t="n">
         <v>72293611.104</v>
@@ -2750,16 +2750,16 @@
         <v>24345179.62</v>
       </c>
       <c r="X21" t="n">
-        <v>25528598.7107228</v>
+        <v>25402040.3939698</v>
       </c>
       <c r="Y21" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z21" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA21" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>6281583.03051181</v>
       </c>
       <c r="Y23" t="n">
-        <v>17563.96377027815</v>
+        <v>17541.93744966879</v>
       </c>
       <c r="Z23" t="n">
-        <v>237483.1501457883</v>
+        <v>236342.288579929</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -3035,13 +3035,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>8755004.764897663</v>
+        <v>8713629.339586299</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>5471877.977842163</v>
+        <v>5446018.337023595</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>4826176.109715702</v>
       </c>
       <c r="U24" t="n">
-        <v>45157620.85245553</v>
+        <v>45090385.7863256</v>
       </c>
       <c r="V24" t="n">
         <v>55170690.432</v>
@@ -3059,13 +3059,13 @@
         <v>26104562</v>
       </c>
       <c r="X24" t="n">
-        <v>19053058.85245553</v>
+        <v>18985823.7863256</v>
       </c>
       <c r="Y24" t="n">
-        <v>44134.76005101384</v>
+        <v>43976.86324997637</v>
       </c>
       <c r="Z24" t="n">
-        <v>350499.7438930306</v>
+        <v>348843.3112165753</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -3144,13 +3144,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>36557385.9239774</v>
+        <v>36323874.3493963</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>22848366.19971736</v>
+        <v>22702421.46562186</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>4436855.088724636</v>
       </c>
       <c r="U25" t="n">
-        <v>89964736.21241939</v>
+        <v>89585279.90374279</v>
       </c>
       <c r="V25" t="n">
         <v>69702364.16</v>
@@ -3168,13 +3168,13 @@
         <v>26122129</v>
       </c>
       <c r="X25" t="n">
-        <v>63842607.21241939</v>
+        <v>63463150.9037428</v>
       </c>
       <c r="Y25" t="n">
-        <v>36852.23791109599</v>
+        <v>37087.24793356486</v>
       </c>
       <c r="Z25" t="n">
-        <v>242096.9515667279</v>
+        <v>240550.5488649813</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3253,22 +3253,22 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>7763713.787226208</v>
+        <v>7701297.914595589</v>
       </c>
       <c r="Q26" t="n">
-        <v>113978.7821973867</v>
+        <v>113062.4571824267</v>
       </c>
       <c r="R26" t="n">
-        <v>4852321.117645632</v>
+        <v>4813311.197246436</v>
       </c>
       <c r="S26" t="n">
-        <v>1659399.573417908</v>
+        <v>1646058.938348623</v>
       </c>
       <c r="T26" t="n">
         <v>3078453.67842406</v>
       </c>
       <c r="U26" t="n">
-        <v>34068681.93891119</v>
+        <v>33952999.18579714</v>
       </c>
       <c r="V26" t="n">
         <v>64321731.76000001</v>
@@ -3277,13 +3277,13 @@
         <v>16600815</v>
       </c>
       <c r="X26" t="n">
-        <v>17467866.9389112</v>
+        <v>17352184.18579713</v>
       </c>
       <c r="Y26" t="n">
-        <v>29014.03623296697</v>
+        <v>28914.47111728559</v>
       </c>
       <c r="Z26" t="n">
-        <v>142581.4717958436</v>
+        <v>141435.1973160015</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -3389,10 +3389,10 @@
         <v>1313525.573468731</v>
       </c>
       <c r="Y27" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z27" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -3498,13 +3498,13 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>12128.51976723833</v>
+        <v>12064.27748916241</v>
       </c>
       <c r="Z28" t="n">
-        <v>39563.96375428392</v>
+        <v>39354.40156449768</v>
       </c>
       <c r="AA28" t="n">
-        <v>2485.000017256944</v>
+        <v>2471.837482570848</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
@@ -3580,22 +3580,22 @@
         <v>155910000</v>
       </c>
       <c r="P29" t="n">
-        <v>184033862.7062357</v>
+        <v>182008441.1067114</v>
       </c>
       <c r="Q29" t="n">
-        <v>5462535.025587383</v>
+        <v>5402416.000391223</v>
       </c>
       <c r="R29" t="n">
-        <v>116323922.7710833</v>
+        <v>115043696.5004538</v>
       </c>
       <c r="S29" t="n">
-        <v>50227465.82760537</v>
+        <v>49674677.37508568</v>
       </c>
       <c r="T29" t="n">
         <v>33575925.79941095</v>
       </c>
       <c r="U29" t="n">
-        <v>590817910.2305678</v>
+        <v>586899354.8826982</v>
       </c>
       <c r="V29" t="n">
         <v>652525039.4096251</v>
@@ -3604,34 +3604,34 @@
         <v>201194198.1006452</v>
       </c>
       <c r="X29" t="n">
-        <v>389623712.1299226</v>
+        <v>385705156.782053</v>
       </c>
       <c r="Y29" t="n">
-        <v>126856.1369337754</v>
+        <v>125462.816766452</v>
       </c>
       <c r="Z29" t="n">
-        <v>284366.9672363024</v>
+        <v>281237.3095246072</v>
       </c>
       <c r="AA29" t="n">
-        <v>145920.9307922148</v>
+        <v>144589.9832159024</v>
       </c>
       <c r="AB29" t="n">
-        <v>53194.91486008317</v>
+        <v>52940.49586059919</v>
       </c>
       <c r="AC29" t="n">
-        <v>119244.3422666423</v>
+        <v>118671.356219022</v>
       </c>
       <c r="AD29" t="n">
-        <v>61189.4046075847</v>
+        <v>61011.42637483328</v>
       </c>
       <c r="AE29" t="n">
-        <v>6009.686184398835</v>
+        <v>5957.574876789206</v>
       </c>
       <c r="AF29" t="n">
-        <v>13471.60867110082</v>
+        <v>13354.49317034308</v>
       </c>
       <c r="AG29" t="n">
-        <v>6912.862262662098</v>
+        <v>6865.824262864529</v>
       </c>
     </row>
     <row r="30">
@@ -3689,22 +3689,22 @@
         <v>41200000</v>
       </c>
       <c r="P30" t="n">
-        <v>44379391.89832949</v>
+        <v>43275425.09418741</v>
       </c>
       <c r="Q30" t="n">
-        <v>1536138.333709589</v>
+        <v>1497925.873951902</v>
       </c>
       <c r="R30" t="n">
-        <v>30510831.9372587</v>
+        <v>29751854.75923298</v>
       </c>
       <c r="S30" t="n">
-        <v>11150322.21666544</v>
+        <v>10872950.55706976</v>
       </c>
       <c r="T30" t="n">
         <v>6788623.788914544</v>
       </c>
       <c r="U30" t="n">
-        <v>138294800.8748778</v>
+        <v>136116272.7733566</v>
       </c>
       <c r="V30" t="n">
         <v>227938341.4382402</v>
@@ -3713,34 +3713,34 @@
         <v>43929492.7</v>
       </c>
       <c r="X30" t="n">
-        <v>94365308.17487776</v>
+        <v>92186780.0733566</v>
       </c>
       <c r="Y30" t="n">
-        <v>8563.662241577542</v>
+        <v>8447.555994350261</v>
       </c>
       <c r="Z30" t="n">
-        <v>299529.6710771597</v>
+        <v>292078.6718727919</v>
       </c>
       <c r="AA30" t="n">
-        <v>176998.4549396249</v>
+        <v>175577.8112655417</v>
       </c>
       <c r="AB30" t="n">
-        <v>3036.556356894839</v>
+        <v>2994.084698908887</v>
       </c>
       <c r="AC30" t="n">
-        <v>106209.0845166752</v>
+        <v>103522.0462482673</v>
       </c>
       <c r="AD30" t="n">
-        <v>62761.20757052118</v>
+        <v>62230.40587474724</v>
       </c>
       <c r="AE30" t="n">
-        <v>422.6952018787068</v>
+        <v>418.8349359888452</v>
       </c>
       <c r="AF30" t="n">
-        <v>14784.53390769174</v>
+        <v>14481.43722508191</v>
       </c>
       <c r="AG30" t="n">
-        <v>8736.495617456971</v>
+        <v>8705.254086702369</v>
       </c>
     </row>
     <row r="31">
@@ -3907,22 +3907,22 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>82007458.61136809</v>
+        <v>81565495.95804745</v>
       </c>
       <c r="Q32" t="n">
-        <v>490345.2660223722</v>
+        <v>487702.6491374683</v>
       </c>
       <c r="R32" t="n">
-        <v>51254661.62482479</v>
+        <v>50978434.96653862</v>
       </c>
       <c r="S32" t="n">
-        <v>4253766.41355485</v>
+        <v>4230841.597659137</v>
       </c>
       <c r="T32" t="n">
         <v>8919885.875243247</v>
       </c>
       <c r="U32" t="n">
-        <v>147983176.6710134</v>
+        <v>147239419.9266259</v>
       </c>
       <c r="V32" t="n">
         <v>31109964.096</v>
@@ -3931,13 +3931,13 @@
         <v>1057058.88</v>
       </c>
       <c r="X32" t="n">
-        <v>146926117.7910134</v>
+        <v>146182361.0466259</v>
       </c>
       <c r="Y32" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z32" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -4016,22 +4016,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>57476086.81734832</v>
+        <v>57166430.68928549</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35922554.26035696</v>
+        <v>35729019.18032031</v>
       </c>
       <c r="S33" t="n">
-        <v>7098566.254187358</v>
+        <v>7060322.27024923</v>
       </c>
       <c r="T33" t="n">
         <v>3573311.861732207</v>
       </c>
       <c r="U33" t="n">
-        <v>104334783.9136248</v>
+        <v>103793348.7215872</v>
       </c>
       <c r="V33" t="n">
         <v>323989164.84</v>
@@ -4040,16 +4040,16 @@
         <v>264264.72</v>
       </c>
       <c r="X33" t="n">
-        <v>104070519.1936248</v>
+        <v>103529084.0015872</v>
       </c>
       <c r="Y33" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z33" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA33" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
@@ -4125,13 +4125,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>34477545.908585</v>
+        <v>34288989.3880756</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21548466.19200369</v>
+        <v>21430618.36669002</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>3341749.666115949</v>
       </c>
       <c r="U34" t="n">
-        <v>59896291.20670462</v>
+        <v>59589886.86088156</v>
       </c>
       <c r="V34" t="n">
         <v>120194447.832</v>
@@ -4149,16 +4149,16 @@
         <v>528529.4400000001</v>
       </c>
       <c r="X34" t="n">
-        <v>59367761.76670463</v>
+        <v>59061357.42088156</v>
       </c>
       <c r="Y34" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z34" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA34" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -4261,10 +4261,10 @@
         <v>406756.3912325151</v>
       </c>
       <c r="Y35" t="n">
-        <v>17563.96377027815</v>
+        <v>17541.93744966879</v>
       </c>
       <c r="Z35" t="n">
-        <v>237483.1501457883</v>
+        <v>236342.288579929</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
@@ -4343,13 +4343,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>18174946.60054705</v>
+        <v>18089053.3125589</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>11359341.62488753</v>
+        <v>11305658.31989708</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>5672328.013511039</v>
       </c>
       <c r="U36" t="n">
-        <v>35206616.23894562</v>
+        <v>35067039.64596702</v>
       </c>
       <c r="V36" t="n">
         <v>61150730.30400001</v>
@@ -4367,13 +4367,13 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>35206616.23894562</v>
+        <v>35067039.64596702</v>
       </c>
       <c r="Y36" t="n">
-        <v>44134.76005101384</v>
+        <v>43976.86324997637</v>
       </c>
       <c r="Z36" t="n">
-        <v>350499.7438930306</v>
+        <v>348843.3112165753</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -4452,13 +4452,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>31048738.7299534</v>
+        <v>30850413.83099412</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19405461.70386954</v>
+        <v>19281508.642035</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -4467,7 +4467,7 @@
         <v>2125072.688034661</v>
       </c>
       <c r="U37" t="n">
-        <v>52579273.12185761</v>
+        <v>52256995.16106378</v>
       </c>
       <c r="V37" t="n">
         <v>28971568.32</v>
@@ -4476,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>52579273.12185761</v>
+        <v>52256995.16106378</v>
       </c>
       <c r="Y37" t="n">
-        <v>36852.23791109599</v>
+        <v>37087.24793356486</v>
       </c>
       <c r="Z37" t="n">
-        <v>242096.9515667279</v>
+        <v>240550.5488649813</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -4561,22 +4561,22 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>96513618.45296894</v>
+        <v>95737703.48732555</v>
       </c>
       <c r="Q38" t="n">
-        <v>1416912.704179278</v>
+        <v>1405521.526542324</v>
       </c>
       <c r="R38" t="n">
-        <v>60321011.54092805</v>
+        <v>59836064.68733805</v>
       </c>
       <c r="S38" t="n">
-        <v>20628614.30484222</v>
+        <v>20462771.90025543</v>
       </c>
       <c r="T38" t="n">
         <v>21466204.00345121</v>
       </c>
       <c r="U38" t="n">
-        <v>200346361.0063697</v>
+        <v>198908265.6049126</v>
       </c>
       <c r="V38" t="n">
         <v>106940501.58</v>
@@ -4585,13 +4585,13 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>200346361.0063697</v>
+        <v>198908265.6049126</v>
       </c>
       <c r="Y38" t="n">
-        <v>29014.03623296697</v>
+        <v>28914.47111728559</v>
       </c>
       <c r="Z38" t="n">
-        <v>142581.4717958436</v>
+        <v>141435.1973160015</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
@@ -4697,10 +4697,10 @@
         <v>4037080.984836808</v>
       </c>
       <c r="Y39" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z39" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
@@ -4779,22 +4779,22 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1831118.4127161</v>
+        <v>1821419.354585577</v>
       </c>
       <c r="Q40" t="n">
-        <v>73916.9133933119</v>
+        <v>73525.39068519433</v>
       </c>
       <c r="R40" t="n">
-        <v>1258893.908788097</v>
+        <v>1252225.80632312</v>
       </c>
       <c r="S40" t="n">
-        <v>460068.5011949201</v>
+        <v>457631.6128396263</v>
       </c>
       <c r="T40" t="n">
         <v>1169473.173697545</v>
       </c>
       <c r="U40" t="n">
-        <v>4793470.909789975</v>
+        <v>4774275.338131063</v>
       </c>
       <c r="V40" t="n">
         <v>16838067.444</v>
@@ -4803,16 +4803,16 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>4793470.909789975</v>
+        <v>4774275.338131063</v>
       </c>
       <c r="Y40" t="n">
-        <v>12128.51976723833</v>
+        <v>12064.27748916241</v>
       </c>
       <c r="Z40" t="n">
-        <v>39563.96375428392</v>
+        <v>39354.40156449768</v>
       </c>
       <c r="AA40" t="n">
-        <v>2485.000017256944</v>
+        <v>2471.837482570848</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
@@ -4915,31 +4915,31 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>126856.1369337754</v>
+        <v>125462.816766452</v>
       </c>
       <c r="Z41" t="n">
-        <v>284366.9672363024</v>
+        <v>281237.3095246072</v>
       </c>
       <c r="AA41" t="n">
-        <v>145920.9307922148</v>
+        <v>144589.9832159024</v>
       </c>
       <c r="AB41" t="n">
-        <v>53194.91486008317</v>
+        <v>52940.49586059919</v>
       </c>
       <c r="AC41" t="n">
-        <v>119244.3422666423</v>
+        <v>118671.356219022</v>
       </c>
       <c r="AD41" t="n">
-        <v>61189.4046075847</v>
+        <v>61011.42637483328</v>
       </c>
       <c r="AE41" t="n">
-        <v>6009.686184398835</v>
+        <v>5957.574876789206</v>
       </c>
       <c r="AF41" t="n">
-        <v>13471.60867110082</v>
+        <v>13354.49317034308</v>
       </c>
       <c r="AG41" t="n">
-        <v>6912.862262662098</v>
+        <v>6865.824262864529</v>
       </c>
     </row>
     <row r="42">
@@ -4997,22 +4997,22 @@
         <v>198520000</v>
       </c>
       <c r="P42" t="n">
-        <v>320416185.0888896</v>
+        <v>312445619.9973636</v>
       </c>
       <c r="Q42" t="n">
-        <v>11090814.08288872</v>
+        <v>10814922.72758419</v>
       </c>
       <c r="R42" t="n">
-        <v>220286127.3002859</v>
+        <v>214806363.7985763</v>
       </c>
       <c r="S42" t="n">
-        <v>80504566.51954067</v>
+        <v>78501962.0398978</v>
       </c>
       <c r="T42" t="n">
         <v>72426247.57108288</v>
       </c>
       <c r="U42" t="n">
-        <v>1268251122.302688</v>
+        <v>1252522297.874505</v>
       </c>
       <c r="V42" t="n">
         <v>903215598.2061501</v>
@@ -5021,34 +5021,34 @@
         <v>563527181.74</v>
       </c>
       <c r="X42" t="n">
-        <v>704723940.5626878</v>
+        <v>688995116.1345047</v>
       </c>
       <c r="Y42" t="n">
-        <v>8563.662241577542</v>
+        <v>8447.555994350261</v>
       </c>
       <c r="Z42" t="n">
-        <v>299529.6710771597</v>
+        <v>292078.6718727919</v>
       </c>
       <c r="AA42" t="n">
-        <v>176998.4549396249</v>
+        <v>175577.8112655417</v>
       </c>
       <c r="AB42" t="n">
-        <v>3036.556356894839</v>
+        <v>2994.084698908887</v>
       </c>
       <c r="AC42" t="n">
-        <v>106209.0845166752</v>
+        <v>103522.0462482673</v>
       </c>
       <c r="AD42" t="n">
-        <v>62761.20757052118</v>
+        <v>62230.40587474724</v>
       </c>
       <c r="AE42" t="n">
-        <v>422.6952018787068</v>
+        <v>418.8349359888452</v>
       </c>
       <c r="AF42" t="n">
-        <v>14784.53390769174</v>
+        <v>14481.43722508191</v>
       </c>
       <c r="AG42" t="n">
-        <v>8736.495617456971</v>
+        <v>8705.254086702369</v>
       </c>
     </row>
     <row r="43">
@@ -5215,22 +5215,22 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>27544489.91526867</v>
+        <v>27396044.44392433</v>
       </c>
       <c r="Q44" t="n">
-        <v>164696.1198853769</v>
+        <v>163808.5233744168</v>
       </c>
       <c r="R44" t="n">
-        <v>17215306.19459764</v>
+        <v>17122527.77502061</v>
       </c>
       <c r="S44" t="n">
-        <v>1428745.970964988</v>
+        <v>1421046.032801542</v>
       </c>
       <c r="T44" t="n">
         <v>5348513.067380375</v>
       </c>
       <c r="U44" t="n">
-        <v>96717646.23809703</v>
+        <v>96467834.81250128</v>
       </c>
       <c r="V44" t="n">
         <v>62219928.192</v>
@@ -5239,13 +5239,13 @@
         <v>45015894.97</v>
       </c>
       <c r="X44" t="n">
-        <v>51701751.26809705</v>
+        <v>51451939.84250128</v>
       </c>
       <c r="Y44" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z44" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA44" t="n">
         <v>0</v>
@@ -5324,22 +5324,22 @@
         <v>102730000</v>
       </c>
       <c r="P45" t="n">
-        <v>168909316.3611869</v>
+        <v>167999306.5154512</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>105568322.7243143</v>
+        <v>104999566.5707372</v>
       </c>
       <c r="S45" t="n">
-        <v>20861092.66536693</v>
+        <v>20748702.18195692</v>
       </c>
       <c r="T45" t="n">
         <v>18200320.58415396</v>
       </c>
       <c r="U45" t="n">
-        <v>521641536.6450222</v>
+        <v>520050380.1622993</v>
       </c>
       <c r="V45" t="n">
         <v>609861957.39</v>
@@ -5348,16 +5348,16 @@
         <v>208102484.31</v>
       </c>
       <c r="X45" t="n">
-        <v>313539052.3350221</v>
+        <v>311947895.8522993</v>
       </c>
       <c r="Y45" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z45" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA45" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB45" t="n">
         <v>0</v>
@@ -5433,13 +5433,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>29980474.70311739</v>
+        <v>29816512.51137009</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18737796.68869886</v>
+        <v>18635320.31886089</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -5448,7 +5448,7 @@
         <v>5044524.606709432</v>
       </c>
       <c r="U46" t="n">
-        <v>99314709.89852569</v>
+        <v>99048271.33694041</v>
       </c>
       <c r="V46" t="n">
         <v>120194447.832</v>
@@ -5457,16 +5457,16 @@
         <v>45551913.9</v>
       </c>
       <c r="X46" t="n">
-        <v>53762795.99852568</v>
+        <v>53496357.4369404</v>
       </c>
       <c r="Y46" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z46" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA46" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB46" t="n">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>10488913.46200915</v>
       </c>
       <c r="Y48" t="n">
-        <v>17563.96377027815</v>
+        <v>17541.93744966879</v>
       </c>
       <c r="Z48" t="n">
-        <v>237483.1501457883</v>
+        <v>236342.288579929</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
@@ -5742,13 +5742,13 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>16069312.5431666</v>
+        <v>15993370.30683561</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>10043320.33907739</v>
+        <v>9995856.441372423</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -5757,7 +5757,7 @@
         <v>8891480.849660844</v>
       </c>
       <c r="U49" t="n">
-        <v>87529443.73190482</v>
+        <v>87406037.59786889</v>
       </c>
       <c r="V49" t="n">
         <v>91726095.456</v>
@@ -5766,13 +5766,13 @@
         <v>52525330</v>
       </c>
       <c r="X49" t="n">
-        <v>35004113.73190483</v>
+        <v>34880707.59786888</v>
       </c>
       <c r="Y49" t="n">
-        <v>44134.76005101384</v>
+        <v>43976.86324997637</v>
       </c>
       <c r="Z49" t="n">
-        <v>350499.7438930306</v>
+        <v>348843.3112165753</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
@@ -5851,13 +5851,13 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>50579396.9633112</v>
+        <v>50256319.30532913</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>31612123.09823908</v>
+        <v>31410199.56202476</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -5866,7 +5866,7 @@
         <v>6161864.315970657</v>
       </c>
       <c r="U50" t="n">
-        <v>122398230.3775209</v>
+        <v>121873229.1833245</v>
       </c>
       <c r="V50" t="n">
         <v>115886273.28</v>
@@ -5875,13 +5875,13 @@
         <v>34044846</v>
       </c>
       <c r="X50" t="n">
-        <v>88353384.37752093</v>
+        <v>87828383.18332455</v>
       </c>
       <c r="Y50" t="n">
-        <v>36852.23791109599</v>
+        <v>37087.24793356486</v>
       </c>
       <c r="Z50" t="n">
-        <v>242096.9515667279</v>
+        <v>240550.5488649813</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
@@ -5960,22 +5960,22 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>24508978.81849843</v>
+        <v>24311940.47548804</v>
       </c>
       <c r="Q51" t="n">
-        <v>359815.3712505738</v>
+        <v>356922.6589484451</v>
       </c>
       <c r="R51" t="n">
-        <v>15318111.76354798</v>
+        <v>15194962.79915051</v>
       </c>
       <c r="S51" t="n">
-        <v>5238496.692554571</v>
+        <v>5196382.138708399</v>
       </c>
       <c r="T51" t="n">
         <v>9755240.771002732</v>
       </c>
       <c r="U51" t="n">
-        <v>109884281.4168543</v>
+        <v>109519086.8432981</v>
       </c>
       <c r="V51" t="n">
         <v>106940501.58</v>
@@ -5984,13 +5984,13 @@
         <v>54703638</v>
       </c>
       <c r="X51" t="n">
-        <v>55180643.41685428</v>
+        <v>54815448.84329812</v>
       </c>
       <c r="Y51" t="n">
-        <v>29014.03623296697</v>
+        <v>28914.47111728559</v>
       </c>
       <c r="Z51" t="n">
-        <v>142581.4717958436</v>
+        <v>141435.1973160015</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
@@ -6096,10 +6096,10 @@
         <v>2260028.073019245</v>
       </c>
       <c r="Y52" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z52" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
@@ -6178,22 +6178,22 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>2034576.014129</v>
+        <v>2023799.282872864</v>
       </c>
       <c r="Q53" t="n">
-        <v>82129.90377034656</v>
+        <v>81694.87853910481</v>
       </c>
       <c r="R53" t="n">
-        <v>1398771.009764552</v>
+        <v>1391362.007025689</v>
       </c>
       <c r="S53" t="n">
-        <v>511187.2235499112</v>
+        <v>508479.569821807</v>
       </c>
       <c r="T53" t="n">
         <v>2368742.303354716</v>
       </c>
       <c r="U53" t="n">
-        <v>11647939.45456853</v>
+        <v>11626611.04161418</v>
       </c>
       <c r="V53" t="n">
         <v>16838067.444</v>
@@ -6202,16 +6202,16 @@
         <v>5252533</v>
       </c>
       <c r="X53" t="n">
-        <v>6395406.454568526</v>
+        <v>6374078.04161418</v>
       </c>
       <c r="Y53" t="n">
-        <v>12128.51976723833</v>
+        <v>12064.27748916241</v>
       </c>
       <c r="Z53" t="n">
-        <v>39563.96375428392</v>
+        <v>39354.40156449768</v>
       </c>
       <c r="AA53" t="n">
-        <v>2485.000017256944</v>
+        <v>2471.837482570848</v>
       </c>
       <c r="AB53" t="n">
         <v>0</v>
@@ -6287,22 +6287,22 @@
         <v>175100000</v>
       </c>
       <c r="P54" t="n">
-        <v>190330539.0012031</v>
+        <v>188235818.0673852</v>
       </c>
       <c r="Q54" t="n">
-        <v>5649434.405409399</v>
+        <v>5587258.421590176</v>
       </c>
       <c r="R54" t="n">
-        <v>120303919.0406801</v>
+        <v>118979890.1225817</v>
       </c>
       <c r="S54" t="n">
-        <v>51945987.02138051</v>
+        <v>51374285.03906839</v>
       </c>
       <c r="T54" t="n">
         <v>34202744.63481054</v>
       </c>
       <c r="U54" t="n">
-        <v>626749274.7867095</v>
+        <v>622696646.9686617</v>
       </c>
       <c r="V54" t="n">
         <v>652525039.4096251</v>
@@ -6311,34 +6311,34 @@
         <v>224316650.6832258</v>
       </c>
       <c r="X54" t="n">
-        <v>402432624.1034837</v>
+        <v>398379996.2854359</v>
       </c>
       <c r="Y54" t="n">
-        <v>126856.1369337754</v>
+        <v>125462.816766452</v>
       </c>
       <c r="Z54" t="n">
-        <v>284366.9672363024</v>
+        <v>281237.3095246072</v>
       </c>
       <c r="AA54" t="n">
-        <v>145920.9307922148</v>
+        <v>144589.9832159024</v>
       </c>
       <c r="AB54" t="n">
-        <v>53194.91486008317</v>
+        <v>52940.49586059919</v>
       </c>
       <c r="AC54" t="n">
-        <v>119244.3422666423</v>
+        <v>118671.356219022</v>
       </c>
       <c r="AD54" t="n">
-        <v>61189.4046075847</v>
+        <v>61011.42637483328</v>
       </c>
       <c r="AE54" t="n">
-        <v>6009.686184398835</v>
+        <v>5957.574876789206</v>
       </c>
       <c r="AF54" t="n">
-        <v>13471.60867110082</v>
+        <v>13354.49317034308</v>
       </c>
       <c r="AG54" t="n">
-        <v>6912.862262662098</v>
+        <v>6865.824262864529</v>
       </c>
     </row>
     <row r="55">
@@ -6396,22 +6396,22 @@
         <v>51500000</v>
       </c>
       <c r="P55" t="n">
-        <v>57307390.5259349</v>
+        <v>55881831.18258978</v>
       </c>
       <c r="Q55" t="n">
-        <v>1983625.183360568</v>
+        <v>1934281.191462095</v>
       </c>
       <c r="R55" t="n">
-        <v>39398830.99582235</v>
+        <v>38418758.94704267</v>
       </c>
       <c r="S55" t="n">
-        <v>14398481.87249513</v>
+        <v>14040310.08740867</v>
       </c>
       <c r="T55" t="n">
         <v>8360795.538529735</v>
       </c>
       <c r="U55" t="n">
-        <v>176633861.6761427</v>
+        <v>173820714.507033</v>
       </c>
       <c r="V55" t="n">
         <v>227938341.4382402</v>
@@ -6420,34 +6420,34 @@
         <v>55184737.56</v>
       </c>
       <c r="X55" t="n">
-        <v>121449124.1161427</v>
+        <v>118635976.947033</v>
       </c>
       <c r="Y55" t="n">
-        <v>8563.662241577542</v>
+        <v>8447.555994350261</v>
       </c>
       <c r="Z55" t="n">
-        <v>299529.6710771597</v>
+        <v>292078.6718727919</v>
       </c>
       <c r="AA55" t="n">
-        <v>176998.4549396249</v>
+        <v>175577.8112655417</v>
       </c>
       <c r="AB55" t="n">
-        <v>3036.556356894839</v>
+        <v>2994.084698908887</v>
       </c>
       <c r="AC55" t="n">
-        <v>106209.0845166752</v>
+        <v>103522.0462482673</v>
       </c>
       <c r="AD55" t="n">
-        <v>62761.20757052118</v>
+        <v>62230.40587474724</v>
       </c>
       <c r="AE55" t="n">
-        <v>422.6952018787068</v>
+        <v>418.8349359888452</v>
       </c>
       <c r="AF55" t="n">
-        <v>14784.53390769174</v>
+        <v>14481.43722508191</v>
       </c>
       <c r="AG55" t="n">
-        <v>8736.495617456971</v>
+        <v>8705.254086702369</v>
       </c>
     </row>
     <row r="56">
@@ -6614,22 +6614,22 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>36308645.79739961</v>
+        <v>36112967.67608207</v>
       </c>
       <c r="Q57" t="n">
-        <v>217099.4307579969</v>
+        <v>215929.4171753676</v>
       </c>
       <c r="R57" t="n">
-        <v>22692903.62015143</v>
+        <v>22570604.79434535</v>
       </c>
       <c r="S57" t="n">
-        <v>1883346.961726575</v>
+        <v>1873197.043238397</v>
       </c>
       <c r="T57" t="n">
         <v>4671252.913252613</v>
       </c>
       <c r="U57" t="n">
-        <v>66301778.16328823</v>
+        <v>65972481.2840938</v>
       </c>
       <c r="V57" t="n">
         <v>31109964.096</v>
@@ -6638,13 +6638,13 @@
         <v>528529.4400000001</v>
       </c>
       <c r="X57" t="n">
-        <v>65773248.72328823</v>
+        <v>65443951.8440938</v>
       </c>
       <c r="Y57" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z57" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA57" t="n">
         <v>0</v>
@@ -6723,22 +6723,22 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>55130124.09010962</v>
+        <v>54833106.98768199</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>34456327.55585259</v>
+        <v>34270691.86683784</v>
       </c>
       <c r="S58" t="n">
-        <v>6808828.856057262</v>
+        <v>6772145.851055384</v>
       </c>
       <c r="T58" t="n">
         <v>4012523.636601255</v>
       </c>
       <c r="U58" t="n">
-        <v>102111002.6786207</v>
+        <v>101591666.8821765</v>
       </c>
       <c r="V58" t="n">
         <v>323989164.84</v>
@@ -6747,16 +6747,16 @@
         <v>1703198.54</v>
       </c>
       <c r="X58" t="n">
-        <v>100407804.1386207</v>
+        <v>99888468.34217648</v>
       </c>
       <c r="Y58" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z58" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA58" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB58" t="n">
         <v>0</v>
@@ -6832,13 +6832,13 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>11617433.94745799</v>
+        <v>11553898.59815591</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>7260896.216870808</v>
+        <v>7221186.623558595</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -6847,7 +6847,7 @@
         <v>1318970.071645095</v>
       </c>
       <c r="U59" t="n">
-        <v>20745498.77597389</v>
+        <v>20642253.8333596</v>
       </c>
       <c r="V59" t="n">
         <v>120194447.832</v>
@@ -6856,16 +6856,16 @@
         <v>548198.54</v>
       </c>
       <c r="X59" t="n">
-        <v>20197300.23597389</v>
+        <v>20094055.2933596</v>
       </c>
       <c r="Y59" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z59" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA59" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB59" t="n">
         <v>0</v>
@@ -6968,31 +6968,31 @@
         <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>126856.1369337754</v>
+        <v>125462.816766452</v>
       </c>
       <c r="Z60" t="n">
-        <v>284366.9672363024</v>
+        <v>281237.3095246072</v>
       </c>
       <c r="AA60" t="n">
-        <v>145920.9307922148</v>
+        <v>144589.9832159024</v>
       </c>
       <c r="AB60" t="n">
-        <v>53194.91486008317</v>
+        <v>52940.49586059919</v>
       </c>
       <c r="AC60" t="n">
-        <v>119244.3422666423</v>
+        <v>118671.356219022</v>
       </c>
       <c r="AD60" t="n">
-        <v>61189.4046075847</v>
+        <v>61011.42637483328</v>
       </c>
       <c r="AE60" t="n">
-        <v>6009.686184398835</v>
+        <v>5957.574876789206</v>
       </c>
       <c r="AF60" t="n">
-        <v>13471.60867110082</v>
+        <v>13354.49317034308</v>
       </c>
       <c r="AG60" t="n">
-        <v>6912.862262662098</v>
+        <v>6865.824262864529</v>
       </c>
     </row>
     <row r="61">
@@ -7050,22 +7050,22 @@
         <v>139050000</v>
       </c>
       <c r="P61" t="n">
-        <v>359825267.0684376</v>
+        <v>350874374.9281136</v>
       </c>
       <c r="Q61" t="n">
-        <v>12454911.22202428</v>
+        <v>12145087.04576807</v>
       </c>
       <c r="R61" t="n">
-        <v>247379871.1675808</v>
+        <v>241226132.8196645</v>
       </c>
       <c r="S61" t="n">
-        <v>90406098.36886472</v>
+        <v>88157186.71816255</v>
       </c>
       <c r="T61" t="n">
         <v>72738430.81396256</v>
       </c>
       <c r="U61" t="n">
-        <v>1249404713.96087</v>
+        <v>1231741347.645671</v>
       </c>
       <c r="V61" t="n">
         <v>903215598.2061501</v>
@@ -7074,34 +7074,34 @@
         <v>466600135.32</v>
       </c>
       <c r="X61" t="n">
-        <v>782804578.64087</v>
+        <v>765141212.3256713</v>
       </c>
       <c r="Y61" t="n">
-        <v>8563.662241577542</v>
+        <v>8447.555994350261</v>
       </c>
       <c r="Z61" t="n">
-        <v>299529.6710771597</v>
+        <v>292078.6718727919</v>
       </c>
       <c r="AA61" t="n">
-        <v>176998.4549396249</v>
+        <v>175577.8112655417</v>
       </c>
       <c r="AB61" t="n">
-        <v>3036.556356894839</v>
+        <v>2994.084698908887</v>
       </c>
       <c r="AC61" t="n">
-        <v>106209.0845166752</v>
+        <v>103522.0462482673</v>
       </c>
       <c r="AD61" t="n">
-        <v>62761.20757052118</v>
+        <v>62230.40587474724</v>
       </c>
       <c r="AE61" t="n">
-        <v>422.6952018787068</v>
+        <v>418.8349359888452</v>
       </c>
       <c r="AF61" t="n">
-        <v>14784.53390769174</v>
+        <v>14481.43722508191</v>
       </c>
       <c r="AG61" t="n">
-        <v>8736.495617456971</v>
+        <v>8705.254086702369</v>
       </c>
     </row>
     <row r="62">
@@ -7268,22 +7268,22 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>27857495.48248763</v>
+        <v>27707363.13078711</v>
       </c>
       <c r="Q63" t="n">
-        <v>166567.6667022562</v>
+        <v>165669.9838673079</v>
       </c>
       <c r="R63" t="n">
-        <v>17410934.6740817</v>
+        <v>17317101.9542822</v>
       </c>
       <c r="S63" t="n">
-        <v>1444981.720635044</v>
+        <v>1437194.283174287</v>
       </c>
       <c r="T63" t="n">
         <v>4828771.24380549</v>
       </c>
       <c r="U63" t="n">
-        <v>102693160.5877121</v>
+        <v>102440510.3959164</v>
       </c>
       <c r="V63" t="n">
         <v>62219928.192</v>
@@ -7292,13 +7292,13 @@
         <v>50984409.8</v>
       </c>
       <c r="X63" t="n">
-        <v>51708750.78771212</v>
+        <v>51456100.59591639</v>
       </c>
       <c r="Y63" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z63" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA63" t="n">
         <v>0</v>
@@ -7377,22 +7377,22 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>232836800.6784416</v>
+        <v>231582377.3841463</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>145523000.4220583</v>
+        <v>144738985.8631343</v>
       </c>
       <c r="S64" t="n">
-        <v>28756436.76441205</v>
+        <v>28601509.60498923</v>
       </c>
       <c r="T64" t="n">
         <v>22499124.09877281</v>
       </c>
       <c r="U64" t="n">
-        <v>619441552.9836847</v>
+        <v>617248187.9710425</v>
       </c>
       <c r="V64" t="n">
         <v>609861957.39</v>
@@ -7401,16 +7401,16 @@
         <v>189826191.02</v>
       </c>
       <c r="X64" t="n">
-        <v>429615361.9636848</v>
+        <v>427421996.9510427</v>
       </c>
       <c r="Y64" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z64" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA64" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB64" t="n">
         <v>0</v>
@@ -7486,13 +7486,13 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>42722176.45194228</v>
+        <v>42488530.32870238</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>26701360.28139587</v>
+        <v>26555331.45437676</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
@@ -7501,7 +7501,7 @@
         <v>6444859.660604786</v>
       </c>
       <c r="U65" t="n">
-        <v>135781029.7539429</v>
+        <v>135401354.8036839</v>
       </c>
       <c r="V65" t="n">
         <v>120194447.832</v>
@@ -7510,16 +7510,16 @@
         <v>59912633.36</v>
       </c>
       <c r="X65" t="n">
-        <v>75868396.39394294</v>
+        <v>75488721.44368394</v>
       </c>
       <c r="Y65" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z65" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA65" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB65" t="n">
         <v>0</v>
@@ -7595,22 +7595,22 @@
         <v>93680000</v>
       </c>
       <c r="P66" t="n">
-        <v>226904217.1299371</v>
+        <v>224406977.2435379</v>
       </c>
       <c r="Q66" t="n">
-        <v>6735022.649088638</v>
+        <v>6660899.006047334</v>
       </c>
       <c r="R66" t="n">
-        <v>143421369.533432</v>
+        <v>141842916.8757814</v>
       </c>
       <c r="S66" t="n">
-        <v>61927862.86416029</v>
+        <v>61246303.34455348</v>
       </c>
       <c r="T66" t="n">
         <v>33438446.87827778</v>
       </c>
       <c r="U66" t="n">
-        <v>617370277.5748959</v>
+        <v>612538901.8681979</v>
       </c>
       <c r="V66" t="n">
         <v>652525039.4096251</v>
@@ -7619,34 +7619,34 @@
         <v>144943358.52</v>
       </c>
       <c r="X66" t="n">
-        <v>472426919.0548959</v>
+        <v>467595543.3481979</v>
       </c>
       <c r="Y66" t="n">
-        <v>126856.1369337754</v>
+        <v>125462.816766452</v>
       </c>
       <c r="Z66" t="n">
-        <v>284366.9672363024</v>
+        <v>281237.3095246072</v>
       </c>
       <c r="AA66" t="n">
-        <v>145920.9307922148</v>
+        <v>144589.9832159024</v>
       </c>
       <c r="AB66" t="n">
-        <v>53194.91486008317</v>
+        <v>52940.49586059919</v>
       </c>
       <c r="AC66" t="n">
-        <v>119244.3422666423</v>
+        <v>118671.356219022</v>
       </c>
       <c r="AD66" t="n">
-        <v>61189.4046075847</v>
+        <v>61011.42637483328</v>
       </c>
       <c r="AE66" t="n">
-        <v>6009.686184398835</v>
+        <v>5957.574876789206</v>
       </c>
       <c r="AF66" t="n">
-        <v>13471.60867110082</v>
+        <v>13354.49317034308</v>
       </c>
       <c r="AG66" t="n">
-        <v>6912.862262662098</v>
+        <v>6865.824262864529</v>
       </c>
     </row>
     <row r="67">
@@ -7704,22 +7704,22 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>69833206.03528164</v>
+        <v>68096058.72451222</v>
       </c>
       <c r="Q67" t="n">
-        <v>2417190.956613217</v>
+        <v>2357061.728581279</v>
       </c>
       <c r="R67" t="n">
-        <v>48010329.1605183</v>
+        <v>46816040.38408417</v>
       </c>
       <c r="S67" t="n">
-        <v>17545593.0198423</v>
+        <v>17109134.75792497</v>
       </c>
       <c r="T67" t="n">
         <v>8376890.854840553</v>
       </c>
       <c r="U67" t="n">
-        <v>148284449.197096</v>
+        <v>144856425.6199432</v>
       </c>
       <c r="V67" t="n">
         <v>227938341.4382402</v>
@@ -7728,34 +7728,34 @@
         <v>2101239.17</v>
       </c>
       <c r="X67" t="n">
-        <v>146183210.027096</v>
+        <v>142755186.4499432</v>
       </c>
       <c r="Y67" t="n">
-        <v>8563.662241577542</v>
+        <v>8447.555994350261</v>
       </c>
       <c r="Z67" t="n">
-        <v>299529.6710771597</v>
+        <v>292078.6718727919</v>
       </c>
       <c r="AA67" t="n">
-        <v>176998.4549396249</v>
+        <v>175577.8112655417</v>
       </c>
       <c r="AB67" t="n">
-        <v>3036.556356894839</v>
+        <v>2994.084698908887</v>
       </c>
       <c r="AC67" t="n">
-        <v>106209.0845166752</v>
+        <v>103522.0462482673</v>
       </c>
       <c r="AD67" t="n">
-        <v>62761.20757052118</v>
+        <v>62230.40587474724</v>
       </c>
       <c r="AE67" t="n">
-        <v>422.6952018787068</v>
+        <v>418.8349359888452</v>
       </c>
       <c r="AF67" t="n">
-        <v>14784.53390769174</v>
+        <v>14481.43722508191</v>
       </c>
       <c r="AG67" t="n">
-        <v>8736.495617456971</v>
+        <v>8705.254086702369</v>
       </c>
     </row>
     <row r="68">
@@ -7922,22 +7922,22 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>20345361.86923254</v>
+        <v>20235714.64608048</v>
       </c>
       <c r="Q69" t="n">
-        <v>121650.5430971534</v>
+        <v>120994.9320379215</v>
       </c>
       <c r="R69" t="n">
-        <v>12715851.16646416</v>
+        <v>12647321.65200386</v>
       </c>
       <c r="S69" t="n">
-        <v>1055323.728553684</v>
+        <v>1049636.274228412</v>
       </c>
       <c r="T69" t="n">
         <v>2357499.654738601</v>
       </c>
       <c r="U69" t="n">
-        <v>36992084.04208614</v>
+        <v>36807564.23908927</v>
       </c>
       <c r="V69" t="n">
         <v>31109964.096</v>
@@ -7946,13 +7946,13 @@
         <v>396397.0800000001</v>
       </c>
       <c r="X69" t="n">
-        <v>36595686.96208614</v>
+        <v>36411167.15908927</v>
       </c>
       <c r="Y69" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z69" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA69" t="n">
         <v>0</v>
@@ -8031,22 +8031,22 @@
         <v>102730000</v>
       </c>
       <c r="P70" t="n">
-        <v>58649068.18096767</v>
+        <v>58333092.54008722</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>36655667.61260914</v>
+        <v>36458182.83706154</v>
       </c>
       <c r="S70" t="n">
-        <v>7243434.953252407</v>
+        <v>7204410.479846153</v>
       </c>
       <c r="T70" t="n">
         <v>3868622.545751695</v>
       </c>
       <c r="U70" t="n">
-        <v>209367863.9725809</v>
+        <v>208815379.0827466</v>
       </c>
       <c r="V70" t="n">
         <v>323989164.84</v>
@@ -8055,16 +8055,16 @@
         <v>102951070.68</v>
       </c>
       <c r="X70" t="n">
-        <v>106416793.2925809</v>
+        <v>105864308.4027466</v>
       </c>
       <c r="Y70" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z70" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA70" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB70" t="n">
         <v>0</v>
@@ -8140,13 +8140,13 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>12741701.74882489</v>
+        <v>12672017.81733229</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>7963563.592697015</v>
+        <v>7920011.135515878</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>1310605.665555576</v>
       </c>
       <c r="U71" t="n">
-        <v>22148003.36707748</v>
+        <v>22034766.97840374</v>
       </c>
       <c r="V71" t="n">
         <v>113516978.508</v>
@@ -8164,16 +8164,16 @@
         <v>132132.36</v>
       </c>
       <c r="X71" t="n">
-        <v>22015871.00707748</v>
+        <v>21902634.61840374</v>
       </c>
       <c r="Y71" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z71" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA71" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB71" t="n">
         <v>0</v>
@@ -8276,10 +8276,10 @@
         <v>1589289.920130746</v>
       </c>
       <c r="Y72" t="n">
-        <v>17563.96377027815</v>
+        <v>17541.93744966879</v>
       </c>
       <c r="Z72" t="n">
-        <v>237483.1501457883</v>
+        <v>236342.288579929</v>
       </c>
       <c r="AA72" t="n">
         <v>0</v>
@@ -8358,13 +8358,13 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>8755004.764897663</v>
+        <v>8713629.339586299</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>5471877.977842164</v>
+        <v>5446018.337023595</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>2908086.811143839</v>
       </c>
       <c r="U73" t="n">
-        <v>17134969.55388366</v>
+        <v>17067734.48775373</v>
       </c>
       <c r="V73" t="n">
         <v>61150730.30400001</v>
@@ -8382,13 +8382,13 @@
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>17134969.55388366</v>
+        <v>17067734.48775373</v>
       </c>
       <c r="Y73" t="n">
-        <v>44134.76005101384</v>
+        <v>43976.86324997637</v>
       </c>
       <c r="Z73" t="n">
-        <v>350499.7438930306</v>
+        <v>348843.3112165753</v>
       </c>
       <c r="AA73" t="n">
         <v>0</v>
@@ -8494,10 +8494,10 @@
         <v>0</v>
       </c>
       <c r="Y74" t="n">
-        <v>36852.23791109599</v>
+        <v>37087.24793356486</v>
       </c>
       <c r="Z74" t="n">
-        <v>242096.9515667279</v>
+        <v>240550.5488649813</v>
       </c>
       <c r="AA74" t="n">
         <v>0</v>
@@ -8576,22 +8576,22 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>28923639.59947019</v>
+        <v>28691109.87790513</v>
       </c>
       <c r="Q75" t="n">
-        <v>424626.8356373231</v>
+        <v>421213.0757776682</v>
       </c>
       <c r="R75" t="n">
-        <v>18077274.75201314</v>
+        <v>17931943.67601613</v>
       </c>
       <c r="S75" t="n">
-        <v>6182076.842145146</v>
+        <v>6132376.436985067</v>
       </c>
       <c r="T75" t="n">
         <v>6855622.83692822</v>
       </c>
       <c r="U75" t="n">
-        <v>60463240.86619402</v>
+        <v>60032265.90361222</v>
       </c>
       <c r="V75" t="n">
         <v>106940501.58</v>
@@ -8600,13 +8600,13 @@
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>60463240.86619402</v>
+        <v>60032265.90361222</v>
       </c>
       <c r="Y75" t="n">
-        <v>29014.03623296697</v>
+        <v>28914.47111728559</v>
       </c>
       <c r="Z75" t="n">
-        <v>142581.4717958436</v>
+        <v>141435.1973160015</v>
       </c>
       <c r="AA75" t="n">
         <v>0</v>
@@ -8712,10 +8712,10 @@
         <v>1951730.498333364</v>
       </c>
       <c r="Y76" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z76" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA76" t="n">
         <v>0</v>
@@ -8794,22 +8794,22 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1119016.80777095</v>
+        <v>1113089.605580075</v>
       </c>
       <c r="Q77" t="n">
-        <v>45171.44707369061</v>
+        <v>44932.18319650765</v>
       </c>
       <c r="R77" t="n">
-        <v>769324.0553705038</v>
+        <v>765249.1038641289</v>
       </c>
       <c r="S77" t="n">
-        <v>281152.9729524511</v>
+        <v>279663.7634019938</v>
       </c>
       <c r="T77" t="n">
         <v>763602.9600653729</v>
       </c>
       <c r="U77" t="n">
-        <v>2978268.243232968</v>
+        <v>2966537.616108078</v>
       </c>
       <c r="V77" t="n">
         <v>16838067.444</v>
@@ -8818,16 +8818,16 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>2978268.243232968</v>
+        <v>2966537.616108078</v>
       </c>
       <c r="Y77" t="n">
-        <v>12128.51976723833</v>
+        <v>12064.27748916241</v>
       </c>
       <c r="Z77" t="n">
-        <v>39563.96375428392</v>
+        <v>39354.40156449768</v>
       </c>
       <c r="AA77" t="n">
-        <v>2485.000017256944</v>
+        <v>2471.837482570848</v>
       </c>
       <c r="AB77" t="n">
         <v>0</v>
@@ -8930,31 +8930,31 @@
         <v>0</v>
       </c>
       <c r="Y78" t="n">
-        <v>126856.1369337754</v>
+        <v>125462.816766452</v>
       </c>
       <c r="Z78" t="n">
-        <v>284366.9672363024</v>
+        <v>281237.3095246072</v>
       </c>
       <c r="AA78" t="n">
-        <v>145920.9307922148</v>
+        <v>144589.9832159024</v>
       </c>
       <c r="AB78" t="n">
-        <v>53194.91486008317</v>
+        <v>52940.49586059919</v>
       </c>
       <c r="AC78" t="n">
-        <v>119244.3422666423</v>
+        <v>118671.356219022</v>
       </c>
       <c r="AD78" t="n">
-        <v>61189.4046075847</v>
+        <v>61011.42637483328</v>
       </c>
       <c r="AE78" t="n">
-        <v>6009.686184398835</v>
+        <v>5957.574876789206</v>
       </c>
       <c r="AF78" t="n">
-        <v>13471.60867110082</v>
+        <v>13354.49317034308</v>
       </c>
       <c r="AG78" t="n">
-        <v>6912.862262662098</v>
+        <v>6865.824262864529</v>
       </c>
     </row>
     <row r="79">
@@ -9012,22 +9012,22 @@
         <v>152230000</v>
       </c>
       <c r="P79" t="n">
-        <v>359286004.9785231</v>
+        <v>350348527.3403032</v>
       </c>
       <c r="Q79" t="n">
-        <v>12436245.32479586</v>
+        <v>12126885.4751117</v>
       </c>
       <c r="R79" t="n">
-        <v>247009128.4806776</v>
+        <v>240864612.6029601</v>
       </c>
       <c r="S79" t="n">
-        <v>90270608.76874685</v>
+        <v>88025067.51169901</v>
       </c>
       <c r="T79" t="n">
         <v>74162460.38202959</v>
       </c>
       <c r="U79" t="n">
-        <v>1279593264.924773</v>
+        <v>1261956370.302104</v>
       </c>
       <c r="V79" t="n">
         <v>903215598.2061501</v>
@@ -9036,34 +9036,34 @@
         <v>496428816.99</v>
       </c>
       <c r="X79" t="n">
-        <v>783164447.934773</v>
+        <v>765527553.3121035</v>
       </c>
       <c r="Y79" t="n">
-        <v>8563.662241577542</v>
+        <v>8447.555994350261</v>
       </c>
       <c r="Z79" t="n">
-        <v>299529.6710771597</v>
+        <v>292078.6718727919</v>
       </c>
       <c r="AA79" t="n">
-        <v>176998.4549396249</v>
+        <v>175577.8112655417</v>
       </c>
       <c r="AB79" t="n">
-        <v>3036.556356894839</v>
+        <v>2994.084698908887</v>
       </c>
       <c r="AC79" t="n">
-        <v>106209.0845166752</v>
+        <v>103522.0462482673</v>
       </c>
       <c r="AD79" t="n">
-        <v>62761.20757052118</v>
+        <v>62230.40587474724</v>
       </c>
       <c r="AE79" t="n">
-        <v>422.6952018787068</v>
+        <v>418.8349359888452</v>
       </c>
       <c r="AF79" t="n">
-        <v>14784.53390769174</v>
+        <v>14481.43722508191</v>
       </c>
       <c r="AG79" t="n">
-        <v>8736.495617456971</v>
+        <v>8705.254086702369</v>
       </c>
     </row>
     <row r="80">
@@ -9230,22 +9230,22 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>28483506.61692555</v>
+        <v>28330000.50451266</v>
       </c>
       <c r="Q81" t="n">
-        <v>170310.7603360148</v>
+        <v>169392.9048530901</v>
       </c>
       <c r="R81" t="n">
-        <v>17802191.63304983</v>
+        <v>17706250.3128054</v>
       </c>
       <c r="S81" t="n">
-        <v>1477453.219975158</v>
+        <v>1469490.783919777</v>
       </c>
       <c r="T81" t="n">
         <v>4989012.847616185</v>
       </c>
       <c r="U81" t="n">
-        <v>101189944.1379027</v>
+        <v>100931616.4137071</v>
       </c>
       <c r="V81" t="n">
         <v>62219928.192</v>
@@ -9254,13 +9254,13 @@
         <v>48267469.06</v>
       </c>
       <c r="X81" t="n">
-        <v>52922475.07790273</v>
+        <v>52664147.3537071</v>
       </c>
       <c r="Y81" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z81" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA81" t="n">
         <v>0</v>
@@ -9333,46 +9333,46 @@
         <v>166790232.84</v>
       </c>
       <c r="N82" t="n">
-        <v>1626290.8</v>
+        <v>18768509.2</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>239874688.8601578</v>
+        <v>238582348.4889567</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
       </c>
       <c r="R82" t="n">
-        <v>149921680.5355714</v>
+        <v>149113967.8035817</v>
       </c>
       <c r="S82" t="n">
-        <v>29625648.95880234</v>
+        <v>29466038.86257076</v>
       </c>
       <c r="T82" t="n">
         <v>23411698.65576945</v>
       </c>
       <c r="U82" t="n">
-        <v>611250240.650301</v>
+        <v>626132795.8508787</v>
       </c>
       <c r="V82" t="n">
         <v>609861957.39</v>
       </c>
       <c r="W82" t="n">
-        <v>168416523.64</v>
+        <v>185558742.04</v>
       </c>
       <c r="X82" t="n">
-        <v>442833717.0103009</v>
+        <v>440574053.8108786</v>
       </c>
       <c r="Y82" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z82" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA82" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB82" t="n">
         <v>0</v>
@@ -9448,13 +9448,13 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>41223152.71678641</v>
+        <v>40997704.70313387</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>25764470.44696093</v>
+        <v>25623565.43843372</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -9463,7 +9463,7 @@
         <v>6281254.870744839</v>
       </c>
       <c r="U83" t="n">
-        <v>143262906.5744922</v>
+        <v>142896553.5523124</v>
       </c>
       <c r="V83" t="n">
         <v>120194447.832</v>
@@ -9472,16 +9472,16 @@
         <v>69994028.54000001</v>
       </c>
       <c r="X83" t="n">
-        <v>73268878.03449218</v>
+        <v>72902525.01231243</v>
       </c>
       <c r="Y83" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z83" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA83" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB83" t="n">
         <v>0</v>
@@ -9675,10 +9675,10 @@
         <v>13340777.34965219</v>
       </c>
       <c r="Y85" t="n">
-        <v>17563.96377027815</v>
+        <v>17541.93744966879</v>
       </c>
       <c r="Z85" t="n">
-        <v>237483.1501457883</v>
+        <v>236342.288579929</v>
       </c>
       <c r="AA85" t="n">
         <v>0</v>
@@ -9757,13 +9757,13 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>24491848.7726884</v>
+        <v>24376102.32972876</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>15307405.48231795</v>
+        <v>15235063.95547107</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
@@ -9772,7 +9772,7 @@
         <v>12235956.05849645</v>
       </c>
       <c r="U86" t="n">
-        <v>156716963.3135028</v>
+        <v>156528875.3436963</v>
       </c>
       <c r="V86" t="n">
         <v>91726095.456</v>
@@ -9781,13 +9781,13 @@
         <v>104681753</v>
       </c>
       <c r="X86" t="n">
-        <v>52035210.3135028</v>
+        <v>51847122.34369628</v>
       </c>
       <c r="Y86" t="n">
-        <v>44134.76005101384</v>
+        <v>43976.86324997637</v>
       </c>
       <c r="Z86" t="n">
-        <v>350499.7438930306</v>
+        <v>348843.3112165753</v>
       </c>
       <c r="AA86" t="n">
         <v>0</v>
@@ -9866,13 +9866,13 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>72613985.73940715</v>
+        <v>72150161.37893786</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>45383741.08163037</v>
+        <v>45093850.85637218</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>7982875.965981833</v>
       </c>
       <c r="U87" t="n">
-        <v>174465522.7870194</v>
+        <v>173711808.2012919</v>
       </c>
       <c r="V87" t="n">
         <v>115886273.28</v>
@@ -9890,13 +9890,13 @@
         <v>48484920</v>
       </c>
       <c r="X87" t="n">
-        <v>125980602.7870194</v>
+        <v>125226888.2012919</v>
       </c>
       <c r="Y87" t="n">
-        <v>36852.23791109599</v>
+        <v>37087.24793356486</v>
       </c>
       <c r="Z87" t="n">
-        <v>242096.9515667279</v>
+        <v>240550.5488649813</v>
       </c>
       <c r="AA87" t="n">
         <v>0</v>
@@ -9975,22 +9975,22 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>32729381.65203205</v>
+        <v>32466255.9144716</v>
       </c>
       <c r="Q88" t="n">
-        <v>480498.7876948656</v>
+        <v>476635.8489063088</v>
       </c>
       <c r="R88" t="n">
-        <v>20455863.53517276</v>
+        <v>20291409.94917615</v>
       </c>
       <c r="S88" t="n">
-        <v>6995508.005585296</v>
+        <v>6939268.07343047</v>
       </c>
       <c r="T88" t="n">
         <v>11747023.15645582</v>
       </c>
       <c r="U88" t="n">
-        <v>132873889.1369408</v>
+        <v>132386206.9424403</v>
       </c>
       <c r="V88" t="n">
         <v>106940501.58</v>
@@ -9999,13 +9999,13 @@
         <v>60465614</v>
       </c>
       <c r="X88" t="n">
-        <v>72408275.13694079</v>
+        <v>71920592.94244035</v>
       </c>
       <c r="Y88" t="n">
-        <v>29014.03623296697</v>
+        <v>28914.47111728559</v>
       </c>
       <c r="Z88" t="n">
-        <v>142581.4717958436</v>
+        <v>141435.1973160015</v>
       </c>
       <c r="AA88" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>2386621.314284393</v>
       </c>
       <c r="Y89" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z89" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA89" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>2797542.019427375</v>
+        <v>2782724.013950188</v>
       </c>
       <c r="Q90" t="n">
-        <v>112928.6176842265</v>
+        <v>112330.4579912691</v>
       </c>
       <c r="R90" t="n">
-        <v>1923310.138426259</v>
+        <v>1913122.759660322</v>
       </c>
       <c r="S90" t="n">
-        <v>702882.432381128</v>
+        <v>699159.4085049846</v>
       </c>
       <c r="T90" t="n">
         <v>2929537.435372419</v>
       </c>
       <c r="U90" t="n">
-        <v>13929537.64329141</v>
+        <v>13900211.07547918</v>
       </c>
       <c r="V90" t="n">
         <v>16838067.444</v>
@@ -10217,16 +10217,16 @@
         <v>5463337</v>
       </c>
       <c r="X90" t="n">
-        <v>8466200.643291408</v>
+        <v>8436874.075479181</v>
       </c>
       <c r="Y90" t="n">
-        <v>12128.51976723833</v>
+        <v>12064.27748916241</v>
       </c>
       <c r="Z90" t="n">
-        <v>39563.96375428392</v>
+        <v>39354.40156449768</v>
       </c>
       <c r="AA90" t="n">
-        <v>2485.000017256944</v>
+        <v>2471.837482570848</v>
       </c>
       <c r="AB90" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>631.856</v>
       </c>
       <c r="F91" t="n">
-        <v>570.0958333333333</v>
+        <v>775.1322222222223</v>
       </c>
       <c r="G91" t="n">
-        <v>4567.2</v>
+        <v>6574.000000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>2491.2</v>
+        <v>3633</v>
       </c>
       <c r="I91" t="n">
         <v>190</v>
@@ -10296,64 +10296,64 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>28501935.48387097</v>
+        <v>41676451.61290322</v>
       </c>
       <c r="O91" t="n">
-        <v>46840000</v>
+        <v>81970000</v>
       </c>
       <c r="P91" t="n">
-        <v>124379946.9734552</v>
+        <v>167252292.6275818</v>
       </c>
       <c r="Q91" t="n">
-        <v>3691873.91294254</v>
+        <v>4964420.640598767</v>
       </c>
       <c r="R91" t="n">
-        <v>78617940.92268109</v>
+        <v>105716646.2997804</v>
       </c>
       <c r="S91" t="n">
-        <v>33946413.14582869</v>
+        <v>45647353.63920543</v>
       </c>
       <c r="T91" t="n">
-        <v>25739801.55421701</v>
+        <v>27291530.60304336</v>
       </c>
       <c r="U91" t="n">
-        <v>341717911.9929955</v>
+        <v>474518695.423113</v>
       </c>
       <c r="V91" t="n">
         <v>554406132.327</v>
       </c>
       <c r="W91" t="n">
-        <v>75341935.48387097</v>
+        <v>123646451.6129032</v>
       </c>
       <c r="X91" t="n">
-        <v>266375976.5091246</v>
+        <v>350872243.8102098</v>
       </c>
       <c r="Y91" t="n">
-        <v>126856.1369337754</v>
+        <v>125462.816766452</v>
       </c>
       <c r="Z91" t="n">
-        <v>284366.9672363024</v>
+        <v>281237.3095246072</v>
       </c>
       <c r="AA91" t="n">
-        <v>145920.9307922148</v>
+        <v>144589.9832159024</v>
       </c>
       <c r="AB91" t="n">
-        <v>53194.91486008317</v>
+        <v>52940.49586059919</v>
       </c>
       <c r="AC91" t="n">
-        <v>119244.3422666423</v>
+        <v>118671.356219022</v>
       </c>
       <c r="AD91" t="n">
-        <v>61189.4046075847</v>
+        <v>61011.42637483328</v>
       </c>
       <c r="AE91" t="n">
-        <v>6009.686184398835</v>
+        <v>5957.574876789206</v>
       </c>
       <c r="AF91" t="n">
-        <v>13471.60867110082</v>
+        <v>13354.49317034308</v>
       </c>
       <c r="AG91" t="n">
-        <v>6912.862262662098</v>
+        <v>6865.824262864529</v>
       </c>
     </row>
     <row r="92">
@@ -10381,13 +10381,13 @@
         <v>184.224</v>
       </c>
       <c r="F92" t="n">
-        <v>113.9680555555556</v>
+        <v>181.5080555555556</v>
       </c>
       <c r="G92" t="n">
-        <v>1003.4</v>
+        <v>1591.6</v>
       </c>
       <c r="H92" t="n">
-        <v>588.2</v>
+        <v>934.2</v>
       </c>
       <c r="I92" t="n">
         <v>46</v>
@@ -10405,64 +10405,64 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>249690.8126</v>
+        <v>629073.1725999999</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>30699479.19530428</v>
+        <v>47676434.50192255</v>
       </c>
       <c r="Q92" t="n">
-        <v>1062624.898621065</v>
+        <v>1650261.428114666</v>
       </c>
       <c r="R92" t="n">
-        <v>21105891.95172267</v>
+        <v>32777548.72776065</v>
       </c>
       <c r="S92" t="n">
-        <v>7713244.149349075</v>
+        <v>11978704.17098239</v>
       </c>
       <c r="T92" t="n">
-        <v>5646697.851087258</v>
+        <v>6499935.77366186</v>
       </c>
       <c r="U92" t="n">
-        <v>66477628.85868435</v>
+        <v>101211957.7750421</v>
       </c>
       <c r="V92" t="n">
         <v>193663701.2439622</v>
       </c>
       <c r="W92" t="n">
-        <v>249690.8126</v>
+        <v>629073.1725999999</v>
       </c>
       <c r="X92" t="n">
-        <v>66227938.04608434</v>
+        <v>100582884.6024421</v>
       </c>
       <c r="Y92" t="n">
-        <v>8563.662241577542</v>
+        <v>8447.555994350261</v>
       </c>
       <c r="Z92" t="n">
-        <v>299529.6710771597</v>
+        <v>292078.6718727919</v>
       </c>
       <c r="AA92" t="n">
-        <v>176998.4549396249</v>
+        <v>175577.8112655417</v>
       </c>
       <c r="AB92" t="n">
-        <v>3036.556356894839</v>
+        <v>2994.084698908887</v>
       </c>
       <c r="AC92" t="n">
-        <v>106209.0845166752</v>
+        <v>103522.0462482673</v>
       </c>
       <c r="AD92" t="n">
-        <v>62761.20757052118</v>
+        <v>62230.40587474724</v>
       </c>
       <c r="AE92" t="n">
-        <v>422.6952018787068</v>
+        <v>418.8349359888452</v>
       </c>
       <c r="AF92" t="n">
-        <v>14784.53390769174</v>
+        <v>14481.43722508191</v>
       </c>
       <c r="AG92" t="n">
-        <v>8736.495617456971</v>
+        <v>8705.254086702369</v>
       </c>
     </row>
     <row r="93">
@@ -10629,22 +10629,22 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>24101428.67586008</v>
+        <v>23971538.88843379</v>
       </c>
       <c r="Q94" t="n">
-        <v>144109.1048997048</v>
+        <v>143332.4579526147</v>
       </c>
       <c r="R94" t="n">
-        <v>15063392.92027293</v>
+        <v>14982211.80314303</v>
       </c>
       <c r="S94" t="n">
-        <v>1250152.724594364</v>
+        <v>1243415.27870135</v>
       </c>
       <c r="T94" t="n">
-        <v>3381774.598593436</v>
+        <v>3024968.323453026</v>
       </c>
       <c r="U94" t="n">
-        <v>44337255.10422052</v>
+        <v>43761863.83168381</v>
       </c>
       <c r="V94" t="n">
         <v>26432019.968</v>
@@ -10653,13 +10653,13 @@
         <v>396397.0800000001</v>
       </c>
       <c r="X94" t="n">
-        <v>43940858.02422052</v>
+        <v>43365466.75168382</v>
       </c>
       <c r="Y94" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z94" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA94" t="n">
         <v>0</v>
@@ -10738,22 +10738,22 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>2932453.409048384</v>
+        <v>2916654.627004361</v>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
       </c>
       <c r="R95" t="n">
-        <v>1832783.380630457</v>
+        <v>1822909.141853077</v>
       </c>
       <c r="S95" t="n">
-        <v>362171.7476626203</v>
+        <v>360220.5239923077</v>
       </c>
       <c r="T95" t="n">
-        <v>231680.7531554179</v>
+        <v>208511.5145099368</v>
       </c>
       <c r="U95" t="n">
-        <v>5359089.290496878</v>
+        <v>5308295.807359682</v>
       </c>
       <c r="V95" t="n">
         <v>275271551.2</v>
@@ -10762,16 +10762,16 @@
         <v>0</v>
       </c>
       <c r="X95" t="n">
-        <v>5359089.290496878</v>
+        <v>5308295.807359682</v>
       </c>
       <c r="Y95" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z95" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA95" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB95" t="n">
         <v>0</v>
@@ -10847,22 +10847,22 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>9368898.344724184</v>
+        <v>9317660.159803152</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>5855561.465218393</v>
+        <v>5823537.599644028</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>1154928.76577709</v>
+        <v>1039082.572549684</v>
       </c>
       <c r="U96" t="n">
-        <v>16511520.93571967</v>
+        <v>16312412.69199686</v>
       </c>
       <c r="V96" t="n">
         <v>102121045.056</v>
@@ -10871,16 +10871,16 @@
         <v>132132.36</v>
       </c>
       <c r="X96" t="n">
-        <v>16379388.57571967</v>
+        <v>16180280.33199686</v>
       </c>
       <c r="Y96" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z96" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA96" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB96" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>0</v>
       </c>
       <c r="Y97" t="n">
-        <v>17563.96377027815</v>
+        <v>17541.93744966879</v>
       </c>
       <c r="Z97" t="n">
-        <v>237483.1501457883</v>
+        <v>236342.288579929</v>
       </c>
       <c r="AA97" t="n">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="Y98" t="n">
-        <v>44134.76005101384</v>
+        <v>43976.86324997637</v>
       </c>
       <c r="Z98" t="n">
-        <v>350499.7438930306</v>
+        <v>348843.3112165753</v>
       </c>
       <c r="AA98" t="n">
         <v>0</v>
@@ -11201,10 +11201,10 @@
         <v>0</v>
       </c>
       <c r="Y99" t="n">
-        <v>36852.23791109599</v>
+        <v>37087.24793356486</v>
       </c>
       <c r="Z99" t="n">
-        <v>242096.9515667279</v>
+        <v>240550.5488649813</v>
       </c>
       <c r="AA99" t="n">
         <v>0</v>
@@ -11310,10 +11310,10 @@
         <v>0</v>
       </c>
       <c r="Y100" t="n">
-        <v>29014.03623296697</v>
+        <v>28914.47111728559</v>
       </c>
       <c r="Z100" t="n">
-        <v>142581.4717958436</v>
+        <v>141435.1973160015</v>
       </c>
       <c r="AA100" t="n">
         <v>0</v>
@@ -11419,10 +11419,10 @@
         <v>0</v>
       </c>
       <c r="Y101" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z101" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA101" t="n">
         <v>0</v>
@@ -11528,13 +11528,13 @@
         <v>0</v>
       </c>
       <c r="Y102" t="n">
-        <v>12128.51976723833</v>
+        <v>12064.27748916241</v>
       </c>
       <c r="Z102" t="n">
-        <v>39563.96375428392</v>
+        <v>39354.40156449768</v>
       </c>
       <c r="AA102" t="n">
-        <v>2485.000017256944</v>
+        <v>2471.837482570848</v>
       </c>
       <c r="AB102" t="n">
         <v>0</v>
@@ -11637,31 +11637,31 @@
         <v>0</v>
       </c>
       <c r="Y103" t="n">
-        <v>126856.1369337754</v>
+        <v>125462.816766452</v>
       </c>
       <c r="Z103" t="n">
-        <v>284366.9672363024</v>
+        <v>281237.3095246072</v>
       </c>
       <c r="AA103" t="n">
-        <v>145920.9307922148</v>
+        <v>144589.9832159024</v>
       </c>
       <c r="AB103" t="n">
-        <v>53194.91486008317</v>
+        <v>52940.49586059919</v>
       </c>
       <c r="AC103" t="n">
-        <v>119244.3422666423</v>
+        <v>118671.356219022</v>
       </c>
       <c r="AD103" t="n">
-        <v>61189.4046075847</v>
+        <v>61011.42637483328</v>
       </c>
       <c r="AE103" t="n">
-        <v>6009.686184398835</v>
+        <v>5957.574876789206</v>
       </c>
       <c r="AF103" t="n">
-        <v>13471.60867110082</v>
+        <v>13354.49317034308</v>
       </c>
       <c r="AG103" t="n">
-        <v>6912.862262662098</v>
+        <v>6865.824262864529</v>
       </c>
     </row>
     <row r="104">
@@ -11689,13 +11689,13 @@
         <v>751.4400000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>816.4577777777778</v>
+        <v>1181.287777777778</v>
       </c>
       <c r="G104" t="n">
-        <v>6200</v>
+        <v>9125</v>
       </c>
       <c r="H104" t="n">
-        <v>2150</v>
+        <v>3275</v>
       </c>
       <c r="I104" t="n">
         <v>365</v>
@@ -11713,64 +11713,64 @@
         <v>341678150</v>
       </c>
       <c r="N104" t="n">
-        <v>2170742.7</v>
+        <v>4597314.96</v>
       </c>
       <c r="O104" t="n">
-        <v>103570000</v>
+        <v>126990000</v>
       </c>
       <c r="P104" t="n">
-        <v>219928544.3675487</v>
+        <v>310286996.3140876</v>
       </c>
       <c r="Q104" t="n">
-        <v>7612557.388211046</v>
+        <v>10740204.61077154</v>
       </c>
       <c r="R104" t="n">
-        <v>151200874.2881581</v>
+        <v>213322310.0159759</v>
       </c>
       <c r="S104" t="n">
-        <v>55257046.78329934</v>
+        <v>77959607.8393672</v>
       </c>
       <c r="T104" t="n">
-        <v>60462205.28459129</v>
+        <v>69189632.22192509</v>
       </c>
       <c r="U104" t="n">
-        <v>941880120.8118085</v>
+        <v>1154764215.962127</v>
       </c>
       <c r="V104" t="n">
         <v>767400844.743289</v>
       </c>
       <c r="W104" t="n">
-        <v>447418892.7</v>
+        <v>473265464.96</v>
       </c>
       <c r="X104" t="n">
-        <v>494461228.1118085</v>
+        <v>681498751.0021273</v>
       </c>
       <c r="Y104" t="n">
-        <v>8563.662241577542</v>
+        <v>8447.555994350261</v>
       </c>
       <c r="Z104" t="n">
-        <v>299529.6710771597</v>
+        <v>292078.6718727919</v>
       </c>
       <c r="AA104" t="n">
-        <v>176998.4549396249</v>
+        <v>175577.8112655417</v>
       </c>
       <c r="AB104" t="n">
-        <v>3036.556356894839</v>
+        <v>2994.084698908887</v>
       </c>
       <c r="AC104" t="n">
-        <v>106209.0845166752</v>
+        <v>103522.0462482673</v>
       </c>
       <c r="AD104" t="n">
-        <v>62761.20757052118</v>
+        <v>62230.40587474724</v>
       </c>
       <c r="AE104" t="n">
-        <v>422.6952018787068</v>
+        <v>418.8349359888452</v>
       </c>
       <c r="AF104" t="n">
-        <v>14784.53390769174</v>
+        <v>14481.43722508191</v>
       </c>
       <c r="AG104" t="n">
-        <v>8736.495617456971</v>
+        <v>8705.254086702369</v>
       </c>
     </row>
     <row r="105">
@@ -11840,10 +11840,10 @@
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>5284682.497027053</v>
+        <v>4726889.0372754</v>
       </c>
       <c r="U105" t="n">
-        <v>30528461.49702705</v>
+        <v>29970668.0372754</v>
       </c>
       <c r="V105" t="n">
         <v>24501617.472</v>
@@ -11852,7 +11852,7 @@
         <v>25243779</v>
       </c>
       <c r="X105" t="n">
-        <v>5284682.497027053</v>
+        <v>4726889.0372754</v>
       </c>
       <c r="Y105" t="n">
         <v>102166.25</v>
@@ -11937,22 +11937,22 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>23475417.54142216</v>
+        <v>23348901.51470824</v>
       </c>
       <c r="Q106" t="n">
-        <v>140366.0112659462</v>
+        <v>139609.5369668325</v>
       </c>
       <c r="R106" t="n">
-        <v>14672135.96130481</v>
+        <v>14593063.44461983</v>
       </c>
       <c r="S106" t="n">
-        <v>1217681.225254251</v>
+        <v>1211118.77795586</v>
       </c>
       <c r="T106" t="n">
-        <v>4858526.064354012</v>
+        <v>4348349.119459208</v>
       </c>
       <c r="U106" t="n">
-        <v>73451769.59360118</v>
+        <v>72728685.18370998</v>
       </c>
       <c r="V106" t="n">
         <v>52864039.936</v>
@@ -11961,13 +11961,13 @@
         <v>29087642.79</v>
       </c>
       <c r="X106" t="n">
-        <v>44364126.80360117</v>
+        <v>43641042.39370997</v>
       </c>
       <c r="Y106" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z106" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA106" t="n">
         <v>0</v>
@@ -12046,22 +12046,22 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>134892856.8162256</v>
+        <v>134166112.8422006</v>
       </c>
       <c r="Q107" t="n">
         <v>0</v>
       </c>
       <c r="R107" t="n">
-        <v>84308035.50900102</v>
+        <v>83853820.52524154</v>
       </c>
       <c r="S107" t="n">
-        <v>16659900.39248054</v>
+        <v>16570144.10364615</v>
       </c>
       <c r="T107" t="n">
-        <v>15455389.93068564</v>
+        <v>13890847.2996749</v>
       </c>
       <c r="U107" t="n">
-        <v>332809292.0183929</v>
+        <v>329974034.1407633</v>
       </c>
       <c r="V107" t="n">
         <v>518158214.06</v>
@@ -12070,16 +12070,16 @@
         <v>81493109.37</v>
       </c>
       <c r="X107" t="n">
-        <v>251316182.6483928</v>
+        <v>248480924.7707632</v>
       </c>
       <c r="Y107" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z107" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA107" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB107" t="n">
         <v>0</v>
@@ -12155,22 +12155,22 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>25858159.43143875</v>
+        <v>25716742.0410567</v>
       </c>
       <c r="Q108" t="n">
         <v>0</v>
       </c>
       <c r="R108" t="n">
-        <v>16161349.64400277</v>
+        <v>16072963.77501752</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>4627025.97920569</v>
+        <v>4157663.18990247</v>
       </c>
       <c r="U108" t="n">
-        <v>82777652.23464721</v>
+        <v>82078486.18597668</v>
       </c>
       <c r="V108" t="n">
         <v>102121045.056</v>
@@ -12179,16 +12179,16 @@
         <v>36131117.18</v>
       </c>
       <c r="X108" t="n">
-        <v>46646535.05464721</v>
+        <v>45947369.00597668</v>
       </c>
       <c r="Y108" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z108" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA108" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB108" t="n">
         <v>0</v>
@@ -12382,10 +12382,10 @@
         <v>0</v>
       </c>
       <c r="Y110" t="n">
-        <v>17563.96377027815</v>
+        <v>17541.93744966879</v>
       </c>
       <c r="Z110" t="n">
-        <v>237483.1501457883</v>
+        <v>236342.288579929</v>
       </c>
       <c r="AA110" t="n">
         <v>0</v>
@@ -12491,10 +12491,10 @@
         <v>0</v>
       </c>
       <c r="Y111" t="n">
-        <v>44134.76005101384</v>
+        <v>43976.86324997637</v>
       </c>
       <c r="Z111" t="n">
-        <v>350499.7438930306</v>
+        <v>348843.3112165753</v>
       </c>
       <c r="AA111" t="n">
         <v>0</v>
@@ -12600,10 +12600,10 @@
         <v>0</v>
       </c>
       <c r="Y112" t="n">
-        <v>36852.23791109599</v>
+        <v>37087.24793356486</v>
       </c>
       <c r="Z112" t="n">
-        <v>242096.9515667279</v>
+        <v>240550.5488649813</v>
       </c>
       <c r="AA112" t="n">
         <v>0</v>
@@ -12709,10 +12709,10 @@
         <v>0</v>
       </c>
       <c r="Y113" t="n">
-        <v>29014.03623296697</v>
+        <v>28914.47111728559</v>
       </c>
       <c r="Z113" t="n">
-        <v>142581.4717958436</v>
+        <v>141435.1973160015</v>
       </c>
       <c r="AA113" t="n">
         <v>0</v>
@@ -12818,10 +12818,10 @@
         <v>0</v>
       </c>
       <c r="Y114" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z114" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA114" t="n">
         <v>0</v>
@@ -12927,13 +12927,13 @@
         <v>0</v>
       </c>
       <c r="Y115" t="n">
-        <v>12128.51976723833</v>
+        <v>12064.27748916241</v>
       </c>
       <c r="Z115" t="n">
-        <v>39563.96375428392</v>
+        <v>39354.40156449768</v>
       </c>
       <c r="AA115" t="n">
-        <v>2485.000017256944</v>
+        <v>2471.837482570848</v>
       </c>
       <c r="AB115" t="n">
         <v>0</v>
@@ -13009,22 +13009,22 @@
         <v>0</v>
       </c>
       <c r="P116" t="n">
-        <v>31084006.13591287</v>
+        <v>30916539.04624623</v>
       </c>
       <c r="Q116" t="n">
         <v>0</v>
       </c>
       <c r="R116" t="n">
-        <v>19427503.83468284</v>
+        <v>19322836.90364262</v>
       </c>
       <c r="S116" t="n">
-        <v>3839020.525223775</v>
+        <v>3818337.554318461</v>
       </c>
       <c r="T116" t="n">
         <v>2173682.323691211</v>
       </c>
       <c r="U116" t="n">
-        <v>56656345.1795107</v>
+        <v>56363528.18789852</v>
       </c>
       <c r="V116" t="n">
         <v>0</v>
@@ -13033,16 +13033,16 @@
         <v>132132.36</v>
       </c>
       <c r="X116" t="n">
-        <v>56524212.8195107</v>
+        <v>56231395.82789852</v>
       </c>
       <c r="Y116" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z116" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA116" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB116" t="n">
         <v>0</v>
@@ -13118,13 +13118,13 @@
         <v>0</v>
       </c>
       <c r="P117" t="n">
-        <v>7120362.74199038</v>
+        <v>7081421.721450395</v>
       </c>
       <c r="Q117" t="n">
         <v>0</v>
       </c>
       <c r="R117" t="n">
-        <v>4450226.713565979</v>
+        <v>4425888.575729461</v>
       </c>
       <c r="S117" t="n">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>776603.6066062831</v>
       </c>
       <c r="U117" t="n">
-        <v>12413259.24216264</v>
+        <v>12349980.08378614</v>
       </c>
       <c r="V117" t="n">
         <v>0</v>
@@ -13142,16 +13142,16 @@
         <v>66066.18000000001</v>
       </c>
       <c r="X117" t="n">
-        <v>12347193.06216264</v>
+        <v>12283913.90378614</v>
       </c>
       <c r="Y117" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z117" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA117" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB117" t="n">
         <v>0</v>
@@ -13227,22 +13227,22 @@
         <v>0</v>
       </c>
       <c r="P118" t="n">
-        <v>1252022.268875849</v>
+        <v>1245274.747451106</v>
       </c>
       <c r="Q118" t="n">
-        <v>7486.187267517133</v>
+        <v>7445.841971564401</v>
       </c>
       <c r="R118" t="n">
-        <v>782513.9179362563</v>
+        <v>778296.7170463912</v>
       </c>
       <c r="S118" t="n">
-        <v>64942.99868022672</v>
+        <v>64593.0014909792</v>
       </c>
       <c r="T118" t="n">
         <v>242195.3473273773</v>
       </c>
       <c r="U118" t="n">
-        <v>13382346.26008723</v>
+        <v>13370991.19528742</v>
       </c>
       <c r="V118" t="n">
         <v>0</v>
@@ -13251,13 +13251,13 @@
         <v>11033185.54</v>
       </c>
       <c r="X118" t="n">
-        <v>2349160.720087226</v>
+        <v>2337805.655287418</v>
       </c>
       <c r="Y118" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z118" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA118" t="n">
         <v>0</v>
@@ -13336,22 +13336,22 @@
         <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>17594720.4542903</v>
+        <v>17499927.76202617</v>
       </c>
       <c r="Q119" t="n">
         <v>0</v>
       </c>
       <c r="R119" t="n">
-        <v>10996700.28378274</v>
+        <v>10937454.85111846</v>
       </c>
       <c r="S119" t="n">
-        <v>2173030.485975722</v>
+        <v>2161323.143953846</v>
       </c>
       <c r="T119" t="n">
         <v>1888975.10495533</v>
       </c>
       <c r="U119" t="n">
-        <v>44188635.46900409</v>
+        <v>44022890.0020538</v>
       </c>
       <c r="V119" t="n">
         <v>0</v>
@@ -13360,16 +13360,16 @@
         <v>11535209.14</v>
       </c>
       <c r="X119" t="n">
-        <v>32653426.32900409</v>
+        <v>32487680.8620538</v>
       </c>
       <c r="Y119" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z119" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA119" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB119" t="n">
         <v>0</v>
@@ -13445,22 +13445,22 @@
         <v>0</v>
       </c>
       <c r="P120" t="n">
-        <v>107914285.4529805</v>
+        <v>107332890.2737605</v>
       </c>
       <c r="Q120" t="n">
         <v>0</v>
       </c>
       <c r="R120" t="n">
-        <v>67446428.40720081</v>
+        <v>67083056.42019323</v>
       </c>
       <c r="S120" t="n">
-        <v>13327920.31398443</v>
+        <v>13256115.28291692</v>
       </c>
       <c r="T120" t="n">
         <v>6709075.332231899</v>
       </c>
       <c r="U120" t="n">
-        <v>209340895.6663976</v>
+        <v>208324323.4691026</v>
       </c>
       <c r="V120" t="n">
         <v>0</v>
@@ -13469,16 +13469,16 @@
         <v>13943186.16</v>
       </c>
       <c r="X120" t="n">
-        <v>195397709.5063977</v>
+        <v>194381137.3091026</v>
       </c>
       <c r="Y120" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z120" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA120" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB120" t="n">
         <v>0</v>
@@ -13554,13 +13554,13 @@
         <v>0</v>
       </c>
       <c r="P121" t="n">
-        <v>21735844.15976011</v>
+        <v>21616971.57074331</v>
       </c>
       <c r="Q121" t="n">
         <v>0</v>
       </c>
       <c r="R121" t="n">
-        <v>13584902.59930667</v>
+        <v>13510607.23117414</v>
       </c>
       <c r="S121" t="n">
         <v>0</v>
@@ -13569,7 +13569,7 @@
         <v>2106755.22429049</v>
       </c>
       <c r="U121" t="n">
-        <v>43948363.78335727</v>
+        <v>43755195.82620795</v>
       </c>
       <c r="V121" t="n">
         <v>0</v>
@@ -13578,16 +13578,16 @@
         <v>6520861.800000001</v>
       </c>
       <c r="X121" t="n">
-        <v>37427501.98335727</v>
+        <v>37234334.02620795</v>
       </c>
       <c r="Y121" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z121" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA121" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB121" t="n">
         <v>0</v>
@@ -13663,22 +13663,22 @@
         <v>0</v>
       </c>
       <c r="P122" t="n">
-        <v>5008089.075503394</v>
+        <v>4981098.989804424</v>
       </c>
       <c r="Q122" t="n">
-        <v>29944.74907006853</v>
+        <v>29783.36788625761</v>
       </c>
       <c r="R122" t="n">
-        <v>3130055.671745025</v>
+        <v>3113186.868185565</v>
       </c>
       <c r="S122" t="n">
-        <v>259771.9947209068</v>
+        <v>258372.0059639168</v>
       </c>
       <c r="T122" t="n">
         <v>972456.9213418865</v>
       </c>
       <c r="U122" t="n">
-        <v>17636957.70238128</v>
+        <v>17591537.44318205</v>
       </c>
       <c r="V122" t="n">
         <v>0</v>
@@ -13687,13 +13687,13 @@
         <v>8236639.29</v>
       </c>
       <c r="X122" t="n">
-        <v>9400318.41238128</v>
+        <v>9354898.15318205</v>
       </c>
       <c r="Y122" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z122" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA122" t="n">
         <v>0</v>
@@ -13772,22 +13772,22 @@
         <v>102730000</v>
       </c>
       <c r="P123" t="n">
-        <v>24632608.63600642</v>
+        <v>24499898.86683663</v>
       </c>
       <c r="Q123" t="n">
         <v>0</v>
       </c>
       <c r="R123" t="n">
-        <v>15395380.39729584</v>
+        <v>15312436.79156585</v>
       </c>
       <c r="S123" t="n">
-        <v>3042242.680366011</v>
+        <v>3025852.401535384</v>
       </c>
       <c r="T123" t="n">
         <v>2654213.418522451</v>
       </c>
       <c r="U123" t="n">
-        <v>163122434.4221907</v>
+        <v>162890390.7684603</v>
       </c>
       <c r="V123" t="n">
         <v>0</v>
@@ -13796,16 +13796,16 @@
         <v>117397989.29</v>
       </c>
       <c r="X123" t="n">
-        <v>45724445.13219072</v>
+        <v>45492401.47846031</v>
       </c>
       <c r="Y123" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z123" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA123" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB123" t="n">
         <v>0</v>
@@ -13881,22 +13881,22 @@
         <v>0</v>
       </c>
       <c r="P124" t="n">
-        <v>2191038.970532735</v>
+        <v>2179230.808039436</v>
       </c>
       <c r="Q124" t="n">
-        <v>13100.82771815498</v>
+        <v>13030.2234502377</v>
       </c>
       <c r="R124" t="n">
-        <v>1369399.356388449</v>
+        <v>1362019.254831185</v>
       </c>
       <c r="S124" t="n">
-        <v>113650.2476903967</v>
+        <v>113037.7526092136</v>
       </c>
       <c r="T124" t="n">
         <v>281885.9516617956</v>
       </c>
       <c r="U124" t="n">
-        <v>4035141.533991531</v>
+        <v>4015270.170591868</v>
       </c>
       <c r="V124" t="n">
         <v>0</v>
@@ -13905,13 +13905,13 @@
         <v>66066.18000000001</v>
       </c>
       <c r="X124" t="n">
-        <v>3969075.353991531</v>
+        <v>3949203.990591868</v>
       </c>
       <c r="Y124" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z124" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA124" t="n">
         <v>0</v>
@@ -13990,22 +13990,22 @@
         <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>70965372.49897088</v>
+        <v>70583041.97350554</v>
       </c>
       <c r="Q125" t="n">
         <v>0</v>
       </c>
       <c r="R125" t="n">
-        <v>44353357.81125706</v>
+        <v>44114401.23284446</v>
       </c>
       <c r="S125" t="n">
-        <v>8764556.293435412</v>
+        <v>8717336.680613846</v>
       </c>
       <c r="T125" t="n">
         <v>5165057.021582467</v>
       </c>
       <c r="U125" t="n">
-        <v>131156542.1652458</v>
+        <v>130488035.4485463</v>
       </c>
       <c r="V125" t="n">
         <v>0</v>
@@ -14014,16 +14014,16 @@
         <v>1908198.54</v>
       </c>
       <c r="X125" t="n">
-        <v>129248343.6252458</v>
+        <v>128579836.9085463</v>
       </c>
       <c r="Y125" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z125" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA125" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB125" t="n">
         <v>0</v>
@@ -14099,13 +14099,13 @@
         <v>0</v>
       </c>
       <c r="P126" t="n">
-        <v>15739749.21913663</v>
+        <v>15653669.06846929</v>
       </c>
       <c r="Q126" t="n">
         <v>0</v>
       </c>
       <c r="R126" t="n">
-        <v>9837343.261566902</v>
+        <v>9783543.167401968</v>
       </c>
       <c r="S126" t="n">
         <v>0</v>
@@ -14114,7 +14114,7 @@
         <v>1786991.709970774</v>
       </c>
       <c r="U126" t="n">
-        <v>27562282.7306743</v>
+        <v>27422402.48584203</v>
       </c>
       <c r="V126" t="n">
         <v>0</v>
@@ -14123,16 +14123,16 @@
         <v>198198.54</v>
       </c>
       <c r="X126" t="n">
-        <v>27364084.1906743</v>
+        <v>27224203.94584204</v>
       </c>
       <c r="Y126" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z126" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA126" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB126" t="n">
         <v>0</v>
@@ -14235,10 +14235,10 @@
         <v>2286864.034960336</v>
       </c>
       <c r="Y127" t="n">
-        <v>17563.96377027815</v>
+        <v>17541.93744966879</v>
       </c>
       <c r="Z127" t="n">
-        <v>237483.1501457883</v>
+        <v>236342.288579929</v>
       </c>
       <c r="AA127" t="n">
         <v>0</v>
@@ -14317,13 +14317,13 @@
         <v>0</v>
       </c>
       <c r="P128" t="n">
-        <v>9530764.68077467</v>
+        <v>9485723.078536984</v>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
       </c>
       <c r="R128" t="n">
-        <v>5956727.9252459</v>
+        <v>5928576.923848472</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
@@ -14332,7 +14332,7 @@
         <v>3509782.263273489</v>
       </c>
       <c r="U128" t="n">
-        <v>18997274.86929406</v>
+        <v>18924082.26565894</v>
       </c>
       <c r="V128" t="n">
         <v>0</v>
@@ -14341,13 +14341,13 @@
         <v>0</v>
       </c>
       <c r="X128" t="n">
-        <v>18997274.86929406</v>
+        <v>18924082.26565894</v>
       </c>
       <c r="Y128" t="n">
-        <v>44134.76005101384</v>
+        <v>43976.86324997637</v>
       </c>
       <c r="Z128" t="n">
-        <v>350499.7438930306</v>
+        <v>348843.3112165753</v>
       </c>
       <c r="AA128" t="n">
         <v>0</v>
@@ -14426,13 +14426,13 @@
         <v>0</v>
       </c>
       <c r="P129" t="n">
-        <v>9014149.953857441</v>
+        <v>8956571.75738539</v>
       </c>
       <c r="Q129" t="n">
         <v>0</v>
       </c>
       <c r="R129" t="n">
-        <v>5633843.720478253</v>
+        <v>5597857.347687581</v>
       </c>
       <c r="S129" t="n">
         <v>0</v>
@@ -14441,7 +14441,7 @@
         <v>728989.5899874745</v>
       </c>
       <c r="U129" t="n">
-        <v>15376983.26432317</v>
+        <v>15283418.69506045</v>
       </c>
       <c r="V129" t="n">
         <v>0</v>
@@ -14450,13 +14450,13 @@
         <v>0</v>
       </c>
       <c r="X129" t="n">
-        <v>15376983.26432317</v>
+        <v>15283418.69506045</v>
       </c>
       <c r="Y129" t="n">
-        <v>36852.23791109599</v>
+        <v>37087.24793356486</v>
       </c>
       <c r="Z129" t="n">
-        <v>242096.9515667279</v>
+        <v>240550.5488649813</v>
       </c>
       <c r="AA129" t="n">
         <v>0</v>
@@ -14535,22 +14535,22 @@
         <v>0</v>
       </c>
       <c r="P130" t="n">
-        <v>30293706.73839246</v>
+        <v>30050162.45106906</v>
       </c>
       <c r="Q130" t="n">
-        <v>444740.7383780384</v>
+        <v>441165.2741039788</v>
       </c>
       <c r="R130" t="n">
-        <v>18933566.7139506</v>
+        <v>18781351.53435374</v>
       </c>
       <c r="S130" t="n">
-        <v>6474912.0609836</v>
+        <v>6422857.426105412</v>
       </c>
       <c r="T130" t="n">
         <v>7976401.91152819</v>
       </c>
       <c r="U130" t="n">
-        <v>64123328.16323289</v>
+        <v>63671938.59716038</v>
       </c>
       <c r="V130" t="n">
         <v>0</v>
@@ -14559,13 +14559,13 @@
         <v>0</v>
       </c>
       <c r="X130" t="n">
-        <v>64123328.16323289</v>
+        <v>63671938.59716038</v>
       </c>
       <c r="Y130" t="n">
-        <v>29014.03623296697</v>
+        <v>28914.47111728559</v>
       </c>
       <c r="Z130" t="n">
-        <v>142581.4717958436</v>
+        <v>141435.1973160015</v>
       </c>
       <c r="AA130" t="n">
         <v>0</v>
@@ -14671,10 +14671,10 @@
         <v>1733046.288304803</v>
       </c>
       <c r="Y131" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z131" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA131" t="n">
         <v>0</v>
@@ -14753,22 +14753,22 @@
         <v>0</v>
       </c>
       <c r="P132" t="n">
-        <v>2288898.015895125</v>
+        <v>2276774.193231971</v>
       </c>
       <c r="Q132" t="n">
-        <v>92396.14174163988</v>
+        <v>91906.73835649292</v>
       </c>
       <c r="R132" t="n">
-        <v>1573617.385985121</v>
+        <v>1565282.2579039</v>
       </c>
       <c r="S132" t="n">
-        <v>575085.6264936501</v>
+        <v>572039.5160495328</v>
       </c>
       <c r="T132" t="n">
         <v>1741923.974968686</v>
       </c>
       <c r="U132" t="n">
-        <v>6271921.145084223</v>
+        <v>6247926.680510583</v>
       </c>
       <c r="V132" t="n">
         <v>0</v>
@@ -14777,16 +14777,16 @@
         <v>0</v>
       </c>
       <c r="X132" t="n">
-        <v>6271921.145084223</v>
+        <v>6247926.680510583</v>
       </c>
       <c r="Y132" t="n">
-        <v>12128.51976723833</v>
+        <v>12064.27748916241</v>
       </c>
       <c r="Z132" t="n">
-        <v>39563.96375428392</v>
+        <v>39354.40156449768</v>
       </c>
       <c r="AA132" t="n">
-        <v>2485.000017256944</v>
+        <v>2471.837482570848</v>
       </c>
       <c r="AB132" t="n">
         <v>0</v>
@@ -14862,22 +14862,22 @@
         <v>0</v>
       </c>
       <c r="P133" t="n">
-        <v>2817050.104970659</v>
+        <v>2801868.181764989</v>
       </c>
       <c r="Q133" t="n">
-        <v>16843.92135191355</v>
+        <v>16753.1444360199</v>
       </c>
       <c r="R133" t="n">
-        <v>1760656.315356577</v>
+        <v>1751167.61335438</v>
       </c>
       <c r="S133" t="n">
-        <v>146121.7470305101</v>
+        <v>145334.2533547032</v>
       </c>
       <c r="T133" t="n">
         <v>488302.7100477463</v>
       </c>
       <c r="U133" t="n">
-        <v>9884756.808757404</v>
+        <v>9859207.912957838</v>
       </c>
       <c r="V133" t="n">
         <v>0</v>
@@ -14886,13 +14886,13 @@
         <v>4655782.01</v>
       </c>
       <c r="X133" t="n">
-        <v>5228974.798757406</v>
+        <v>5203425.902957838</v>
       </c>
       <c r="Y133" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z133" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA133" t="n">
         <v>0</v>
@@ -14971,22 +14971,22 @@
         <v>0</v>
       </c>
       <c r="P134" t="n">
-        <v>35189440.9085806</v>
+        <v>34999855.52405234</v>
       </c>
       <c r="Q134" t="n">
         <v>0</v>
       </c>
       <c r="R134" t="n">
-        <v>21993400.56756549</v>
+        <v>21874909.70223692</v>
       </c>
       <c r="S134" t="n">
-        <v>4346060.971951444</v>
+        <v>4322646.287907692</v>
       </c>
       <c r="T134" t="n">
         <v>3400371.400318308</v>
       </c>
       <c r="U134" t="n">
-        <v>94538656.53841583</v>
+        <v>94207165.60451525</v>
       </c>
       <c r="V134" t="n">
         <v>0</v>
@@ -14995,16 +14995,16 @@
         <v>29609382.69</v>
       </c>
       <c r="X134" t="n">
-        <v>64929273.84841584</v>
+        <v>64597782.91451526</v>
       </c>
       <c r="Y134" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z134" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA134" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB134" t="n">
         <v>0</v>
@@ -15080,22 +15080,22 @@
         <v>0</v>
       </c>
       <c r="P135" t="n">
-        <v>4695083.508284432</v>
+        <v>4669780.302941648</v>
       </c>
       <c r="Q135" t="n">
-        <v>28073.20225318925</v>
+        <v>27921.90739336651</v>
       </c>
       <c r="R135" t="n">
-        <v>2934427.192260961</v>
+        <v>2918612.688923967</v>
       </c>
       <c r="S135" t="n">
-        <v>243536.2450508502</v>
+        <v>242223.755591172</v>
       </c>
       <c r="T135" t="n">
         <v>813837.8500795771</v>
       </c>
       <c r="U135" t="n">
-        <v>16540719.41792901</v>
+        <v>16498137.92492973</v>
       </c>
       <c r="V135" t="n">
         <v>0</v>
@@ -15104,13 +15104,13 @@
         <v>7825761.42</v>
       </c>
       <c r="X135" t="n">
-        <v>8714957.997929009</v>
+        <v>8672376.504929731</v>
       </c>
       <c r="Y135" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z135" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA135" t="n">
         <v>0</v>
@@ -15307,10 +15307,10 @@
         <v>13202073.02796112</v>
       </c>
       <c r="Y137" t="n">
-        <v>17563.96377027815</v>
+        <v>17541.93744966879</v>
       </c>
       <c r="Z137" t="n">
-        <v>237483.1501457883</v>
+        <v>236342.288579929</v>
       </c>
       <c r="AA137" t="n">
         <v>0</v>
@@ -15389,13 +15389,13 @@
         <v>0</v>
       </c>
       <c r="P138" t="n">
-        <v>26043368.60444241</v>
+        <v>25920289.80763013</v>
       </c>
       <c r="Q138" t="n">
         <v>0</v>
       </c>
       <c r="R138" t="n">
-        <v>16277105.37712543</v>
+        <v>16200181.12912082</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
@@ -15404,7 +15404,7 @@
         <v>12877496.31791337</v>
       </c>
       <c r="U138" t="n">
-        <v>155892014.2994812</v>
+        <v>155692011.2546643</v>
       </c>
       <c r="V138" t="n">
         <v>0</v>
@@ -15413,13 +15413,13 @@
         <v>100694044</v>
       </c>
       <c r="X138" t="n">
-        <v>55197970.29948121</v>
+        <v>54997967.25466433</v>
       </c>
       <c r="Y138" t="n">
-        <v>44134.76005101384</v>
+        <v>43976.86324997637</v>
       </c>
       <c r="Z138" t="n">
-        <v>350499.7438930306</v>
+        <v>348843.3112165753</v>
       </c>
       <c r="AA138" t="n">
         <v>0</v>
@@ -15498,13 +15498,13 @@
         <v>0</v>
       </c>
       <c r="P139" t="n">
-        <v>80125777.36762169</v>
+        <v>79613971.17675902</v>
       </c>
       <c r="Q139" t="n">
         <v>0</v>
       </c>
       <c r="R139" t="n">
-        <v>50078610.84869558</v>
+        <v>49758731.97944516</v>
       </c>
       <c r="S139" t="n">
         <v>0</v>
@@ -15513,7 +15513,7 @@
         <v>8717737.067515489</v>
       </c>
       <c r="U139" t="n">
-        <v>188601601.2838328</v>
+        <v>187769916.2237197</v>
       </c>
       <c r="V139" t="n">
         <v>0</v>
@@ -15522,13 +15522,13 @@
         <v>49679476</v>
       </c>
       <c r="X139" t="n">
-        <v>138922125.2838328</v>
+        <v>138090440.2237197</v>
       </c>
       <c r="Y139" t="n">
-        <v>36852.23791109599</v>
+        <v>37087.24793356486</v>
       </c>
       <c r="Z139" t="n">
-        <v>242096.9515667279</v>
+        <v>240550.5488649813</v>
       </c>
       <c r="AA139" t="n">
         <v>0</v>
@@ -15607,22 +15607,22 @@
         <v>0</v>
       </c>
       <c r="P140" t="n">
-        <v>36535123.70459392</v>
+        <v>36241401.95103806</v>
       </c>
       <c r="Q140" t="n">
-        <v>536370.7397524081</v>
+        <v>532058.6220349493</v>
       </c>
       <c r="R140" t="n">
-        <v>22834452.31833239</v>
+        <v>22650876.22233617</v>
       </c>
       <c r="S140" t="n">
-        <v>7808939.169025447</v>
+        <v>7746159.709875874</v>
       </c>
       <c r="T140" t="n">
         <v>12976525.60127323</v>
       </c>
       <c r="U140" t="n">
-        <v>161306374.5329774</v>
+        <v>160761985.1065583</v>
       </c>
       <c r="V140" t="n">
         <v>0</v>
@@ -15631,13 +15631,13 @@
         <v>80614963</v>
       </c>
       <c r="X140" t="n">
-        <v>80691411.5329774</v>
+        <v>80147022.10655829</v>
       </c>
       <c r="Y140" t="n">
-        <v>29014.03623296697</v>
+        <v>28914.47111728559</v>
       </c>
       <c r="Z140" t="n">
-        <v>142581.4717958436</v>
+        <v>141435.1973160015</v>
       </c>
       <c r="AA140" t="n">
         <v>0</v>
@@ -15743,10 +15743,10 @@
         <v>2756536.976926618</v>
       </c>
       <c r="Y141" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z141" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA141" t="n">
         <v>0</v>
@@ -15825,22 +15825,22 @@
         <v>0</v>
       </c>
       <c r="P142" t="n">
-        <v>2746677.61907415</v>
+        <v>2732129.031878366</v>
       </c>
       <c r="Q142" t="n">
-        <v>110875.3700899679</v>
+        <v>110288.0860277915</v>
       </c>
       <c r="R142" t="n">
-        <v>1888340.863182146</v>
+        <v>1878338.70948468</v>
       </c>
       <c r="S142" t="n">
-        <v>690102.7517923801</v>
+        <v>686447.4192594393</v>
       </c>
       <c r="T142" t="n">
         <v>2845576.260286477</v>
       </c>
       <c r="U142" t="n">
-        <v>14359754.86442512</v>
+        <v>14330961.50693676</v>
       </c>
       <c r="V142" t="n">
         <v>0</v>
@@ -15849,16 +15849,16 @@
         <v>6078182</v>
       </c>
       <c r="X142" t="n">
-        <v>8281572.864425122</v>
+        <v>8252779.506936754</v>
       </c>
       <c r="Y142" t="n">
-        <v>12128.51976723833</v>
+        <v>12064.27748916241</v>
       </c>
       <c r="Z142" t="n">
-        <v>39563.96375428392</v>
+        <v>39354.40156449768</v>
       </c>
       <c r="AA142" t="n">
-        <v>2485.000017256944</v>
+        <v>2471.837482570848</v>
       </c>
       <c r="AB142" t="n">
         <v>0</v>
@@ -15928,43 +15928,43 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>396397.0800000001</v>
+        <v>8902882.08</v>
       </c>
       <c r="O143" t="n">
         <v>0</v>
       </c>
       <c r="P143" t="n">
-        <v>14085250.5248533</v>
+        <v>14009340.90882494</v>
       </c>
       <c r="Q143" t="n">
-        <v>84219.60675956775</v>
+        <v>83765.72218009952</v>
       </c>
       <c r="R143" t="n">
-        <v>8803281.576782882</v>
+        <v>8755838.066771902</v>
       </c>
       <c r="S143" t="n">
-        <v>730608.7351525505</v>
+        <v>726671.266773516</v>
       </c>
       <c r="T143" t="n">
         <v>1632115.145588263</v>
       </c>
       <c r="U143" t="n">
-        <v>25731872.66913656</v>
+        <v>34110613.19013872</v>
       </c>
       <c r="V143" t="n">
         <v>0</v>
       </c>
       <c r="W143" t="n">
-        <v>396397.0800000001</v>
+        <v>8902882.08</v>
       </c>
       <c r="X143" t="n">
-        <v>25335475.58913656</v>
+        <v>25207731.11013872</v>
       </c>
       <c r="Y143" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z143" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA143" t="n">
         <v>0</v>
@@ -16040,43 +16040,43 @@
         <v>126070.68</v>
       </c>
       <c r="O144" t="n">
-        <v>90000000</v>
+        <v>0</v>
       </c>
       <c r="P144" t="n">
-        <v>25805589.99962577</v>
+        <v>25666560.71763838</v>
       </c>
       <c r="Q144" t="n">
         <v>0</v>
       </c>
       <c r="R144" t="n">
-        <v>16128493.74954802</v>
+        <v>16041600.44830708</v>
       </c>
       <c r="S144" t="n">
-        <v>3187111.379431059</v>
+        <v>3169940.611132307</v>
       </c>
       <c r="T144" t="n">
         <v>1702193.920130746</v>
       </c>
       <c r="U144" t="n">
-        <v>136949459.7287356</v>
+        <v>46706366.37720851</v>
       </c>
       <c r="V144" t="n">
         <v>0</v>
       </c>
       <c r="W144" t="n">
-        <v>90126070.68000001</v>
+        <v>126070.68</v>
       </c>
       <c r="X144" t="n">
-        <v>46823389.0487356</v>
+        <v>46580295.69720851</v>
       </c>
       <c r="Y144" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z144" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA144" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB144" t="n">
         <v>0</v>
@@ -16152,13 +16152,13 @@
         <v>0</v>
       </c>
       <c r="P145" t="n">
-        <v>13116457.68261386</v>
+        <v>13044724.22372441</v>
       </c>
       <c r="Q145" t="n">
         <v>0</v>
       </c>
       <c r="R145" t="n">
-        <v>8197786.05130575</v>
+        <v>8152952.639501639</v>
       </c>
       <c r="S145" t="n">
         <v>0</v>
@@ -16167,7 +16167,7 @@
         <v>1349152.891013093</v>
       </c>
       <c r="U145" t="n">
-        <v>22861595.16493271</v>
+        <v>22745028.29423914</v>
       </c>
       <c r="V145" t="n">
         <v>0</v>
@@ -16176,16 +16176,16 @@
         <v>198198.54</v>
       </c>
       <c r="X145" t="n">
-        <v>22663396.6249327</v>
+        <v>22546829.75423915</v>
       </c>
       <c r="Y145" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z145" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA145" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB145" t="n">
         <v>0</v>
@@ -16261,22 +16261,22 @@
         <v>0</v>
       </c>
       <c r="P146" t="n">
-        <v>3130055.672189621</v>
+        <v>3113186.868627765</v>
       </c>
       <c r="Q146" t="n">
-        <v>18715.46816879283</v>
+        <v>18614.604928911</v>
       </c>
       <c r="R146" t="n">
-        <v>1956284.794840641</v>
+        <v>1945741.792615978</v>
       </c>
       <c r="S146" t="n">
-        <v>162357.4967005668</v>
+        <v>161482.503727448</v>
       </c>
       <c r="T146" t="n">
         <v>548243.1700677127</v>
       </c>
       <c r="U146" t="n">
-        <v>11523174.90196733</v>
+        <v>11494787.23996781</v>
       </c>
       <c r="V146" t="n">
         <v>0</v>
@@ -16285,13 +16285,13 @@
         <v>5707518.3</v>
       </c>
       <c r="X146" t="n">
-        <v>5815656.601967335</v>
+        <v>5787268.939967816</v>
       </c>
       <c r="Y146" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z146" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA146" t="n">
         <v>0</v>
@@ -16370,22 +16370,22 @@
         <v>102730000</v>
       </c>
       <c r="P147" t="n">
-        <v>42227329.09029672</v>
+        <v>41999826.6288628</v>
       </c>
       <c r="Q147" t="n">
         <v>0</v>
       </c>
       <c r="R147" t="n">
-        <v>26392080.68107858</v>
+        <v>26249891.64268431</v>
       </c>
       <c r="S147" t="n">
-        <v>5215273.166341733</v>
+        <v>5187175.54548923</v>
       </c>
       <c r="T147" t="n">
         <v>4121374.824487531</v>
       </c>
       <c r="U147" t="n">
-        <v>205402855.2822046</v>
+        <v>205005066.1615238</v>
       </c>
       <c r="V147" t="n">
         <v>0</v>
@@ -16394,16 +16394,16 @@
         <v>127446797.52</v>
       </c>
       <c r="X147" t="n">
-        <v>77956057.76220457</v>
+        <v>77558268.64152388</v>
       </c>
       <c r="Y147" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z147" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA147" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB147" t="n">
         <v>0</v>
@@ -16491,10 +16491,10 @@
         <v>0</v>
       </c>
       <c r="T148" t="n">
-        <v>2144737.380923096</v>
+        <v>1917678.84219738</v>
       </c>
       <c r="U148" t="n">
-        <v>2342935.920923096</v>
+        <v>2115877.382197381</v>
       </c>
       <c r="V148" t="n">
         <v>0</v>
@@ -16503,13 +16503,13 @@
         <v>198198.54</v>
       </c>
       <c r="X148" t="n">
-        <v>2144737.380923096</v>
+        <v>1917678.84219738</v>
       </c>
       <c r="Y148" t="n">
-        <v>17563.96377027815</v>
+        <v>17541.93744966879</v>
       </c>
       <c r="Z148" t="n">
-        <v>237483.1501457883</v>
+        <v>236342.288579929</v>
       </c>
       <c r="AA148" t="n">
         <v>0</v>
@@ -16588,22 +16588,22 @@
         <v>0</v>
       </c>
       <c r="P149" t="n">
-        <v>22529992.95116625</v>
+        <v>22348864.53647347</v>
       </c>
       <c r="Q149" t="n">
-        <v>330761.9561806517</v>
+        <v>328102.8169215521</v>
       </c>
       <c r="R149" t="n">
-        <v>14081245.59630497</v>
+        <v>13968040.3371073</v>
       </c>
       <c r="S149" t="n">
-        <v>4815512.487565693</v>
+        <v>4776798.487756789</v>
       </c>
       <c r="T149" t="n">
-        <v>6472358.293400371</v>
+        <v>5786548.829494128</v>
       </c>
       <c r="U149" t="n">
-        <v>48824466.90461794</v>
+        <v>47802950.62775324</v>
       </c>
       <c r="V149" t="n">
         <v>0</v>
@@ -16612,13 +16612,13 @@
         <v>594595.6200000001</v>
       </c>
       <c r="X149" t="n">
-        <v>48229871.28461794</v>
+        <v>47208355.00775325</v>
       </c>
       <c r="Y149" t="n">
-        <v>29014.03623296697</v>
+        <v>28914.47111728559</v>
       </c>
       <c r="Z149" t="n">
-        <v>142581.4717958436</v>
+        <v>141435.1973160015</v>
       </c>
       <c r="AA149" t="n">
         <v>0</v>
@@ -16697,22 +16697,22 @@
         <v>0</v>
       </c>
       <c r="P150" t="n">
-        <v>457779.603179025</v>
+        <v>455354.8386463943</v>
       </c>
       <c r="Q150" t="n">
-        <v>18479.22834832798</v>
+        <v>18381.34767129858</v>
       </c>
       <c r="R150" t="n">
-        <v>314723.4771970243</v>
+        <v>313056.45158078</v>
       </c>
       <c r="S150" t="n">
-        <v>115017.12529873</v>
+        <v>114407.9032099066</v>
       </c>
       <c r="T150" t="n">
-        <v>381232.3556797522</v>
+        <v>339527.7261178863</v>
       </c>
       <c r="U150" t="n">
-        <v>1287231.789702859</v>
+        <v>1240728.267226266</v>
       </c>
       <c r="V150" t="n">
         <v>0</v>
@@ -16721,16 +16721,16 @@
         <v>0</v>
       </c>
       <c r="X150" t="n">
-        <v>1287231.789702859</v>
+        <v>1240728.267226266</v>
       </c>
       <c r="Y150" t="n">
-        <v>12128.51976723833</v>
+        <v>12064.27748916241</v>
       </c>
       <c r="Z150" t="n">
-        <v>39563.96375428392</v>
+        <v>39354.40156449768</v>
       </c>
       <c r="AA150" t="n">
-        <v>2485.000017256944</v>
+        <v>2471.837482570848</v>
       </c>
       <c r="AB150" t="n">
         <v>0</v>
@@ -16806,22 +16806,22 @@
         <v>0</v>
       </c>
       <c r="P151" t="n">
-        <v>3324685.353758606</v>
+        <v>3308973.166931506</v>
       </c>
       <c r="Q151" t="n">
         <v>0</v>
       </c>
       <c r="R151" t="n">
-        <v>2077928.346016012</v>
+        <v>2068108.229249467</v>
       </c>
       <c r="S151" t="n">
         <v>0</v>
       </c>
       <c r="T151" t="n">
-        <v>1333834.518932508</v>
+        <v>1194819.087059621</v>
       </c>
       <c r="U151" t="n">
-        <v>6934646.758707126</v>
+        <v>6770099.023240594</v>
       </c>
       <c r="V151" t="n">
         <v>0</v>
@@ -16830,13 +16830,13 @@
         <v>198198.54</v>
       </c>
       <c r="X151" t="n">
-        <v>6736448.218707125</v>
+        <v>6571900.483240593</v>
       </c>
       <c r="Y151" t="n">
-        <v>44134.76005101384</v>
+        <v>43976.86324997637</v>
       </c>
       <c r="Z151" t="n">
-        <v>350499.7438930306</v>
+        <v>348843.3112165753</v>
       </c>
       <c r="AA151" t="n">
         <v>0</v>
@@ -16927,10 +16927,10 @@
         <v>0</v>
       </c>
       <c r="T152" t="n">
-        <v>826544.7113595045</v>
+        <v>743135.4522357725</v>
       </c>
       <c r="U152" t="n">
-        <v>958677.0713595045</v>
+        <v>875267.8122357725</v>
       </c>
       <c r="V152" t="n">
         <v>0</v>
@@ -16939,13 +16939,13 @@
         <v>132132.36</v>
       </c>
       <c r="X152" t="n">
-        <v>826544.7113595045</v>
+        <v>743135.4522357725</v>
       </c>
       <c r="Y152" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z152" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA152" t="n">
         <v>0</v>
@@ -17024,22 +17024,22 @@
         <v>0</v>
       </c>
       <c r="P153" t="n">
-        <v>3767976.734259753</v>
+        <v>3750169.58918904</v>
       </c>
       <c r="Q153" t="n">
         <v>0</v>
       </c>
       <c r="R153" t="n">
-        <v>2354985.458818146</v>
+        <v>2343855.993149396</v>
       </c>
       <c r="S153" t="n">
         <v>0</v>
       </c>
       <c r="T153" t="n">
-        <v>1511679.121456842</v>
+        <v>1354128.29866757</v>
       </c>
       <c r="U153" t="n">
-        <v>7766773.674534742</v>
+        <v>7580286.241006006</v>
       </c>
       <c r="V153" t="n">
         <v>0</v>
@@ -17048,13 +17048,13 @@
         <v>132132.36</v>
       </c>
       <c r="X153" t="n">
-        <v>7634641.314534741</v>
+        <v>7448153.881006006</v>
       </c>
       <c r="Y153" t="n">
-        <v>44134.76005101384</v>
+        <v>43976.86324997637</v>
       </c>
       <c r="Z153" t="n">
-        <v>350499.7438930306</v>
+        <v>348843.3112165753</v>
       </c>
       <c r="AA153" t="n">
         <v>0</v>
@@ -17133,22 +17133,22 @@
         <v>0</v>
       </c>
       <c r="P154" t="n">
-        <v>52784161.3628709</v>
+        <v>52499783.28607851</v>
       </c>
       <c r="Q154" t="n">
         <v>0</v>
       </c>
       <c r="R154" t="n">
-        <v>32990100.85134823</v>
+        <v>32812364.55335538</v>
       </c>
       <c r="S154" t="n">
-        <v>6519091.457927166</v>
+        <v>6483969.431861538</v>
       </c>
       <c r="T154" t="n">
-        <v>4170253.556797523</v>
+        <v>3753207.261178862</v>
       </c>
       <c r="U154" t="n">
-        <v>96661805.76894382</v>
+        <v>95747523.07247429</v>
       </c>
       <c r="V154" t="n">
         <v>0</v>
@@ -17157,16 +17157,16 @@
         <v>198198.54</v>
       </c>
       <c r="X154" t="n">
-        <v>96463607.22894381</v>
+        <v>95549324.53247429</v>
       </c>
       <c r="Y154" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z154" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA154" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB154" t="n">
         <v>0</v>
@@ -17254,10 +17254,10 @@
         <v>0</v>
       </c>
       <c r="T155" t="n">
-        <v>275514.9037865015</v>
+        <v>247711.8174119241</v>
       </c>
       <c r="U155" t="n">
-        <v>275514.9037865015</v>
+        <v>247711.8174119241</v>
       </c>
       <c r="V155" t="n">
         <v>0</v>
@@ -17266,13 +17266,13 @@
         <v>0</v>
       </c>
       <c r="X155" t="n">
-        <v>275514.9037865015</v>
+        <v>247711.8174119241</v>
       </c>
       <c r="Y155" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z155" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA155" t="n">
         <v>0</v>
@@ -17351,22 +17351,22 @@
         <v>0</v>
       </c>
       <c r="P156" t="n">
-        <v>10493166.14609109</v>
+        <v>10435779.37897953</v>
       </c>
       <c r="Q156" t="n">
         <v>0</v>
       </c>
       <c r="R156" t="n">
-        <v>6558228.8410446</v>
+        <v>6522362.111601311</v>
       </c>
       <c r="S156" t="n">
         <v>0</v>
       </c>
       <c r="T156" t="n">
-        <v>1293520.217670341</v>
+        <v>1163772.481255646</v>
       </c>
       <c r="U156" t="n">
-        <v>18477047.56480603</v>
+        <v>18254046.33183649</v>
       </c>
       <c r="V156" t="n">
         <v>0</v>
@@ -17375,16 +17375,16 @@
         <v>132132.36</v>
       </c>
       <c r="X156" t="n">
-        <v>18344915.20480603</v>
+        <v>18121913.97183649</v>
       </c>
       <c r="Y156" t="n">
-        <v>35324.95756146035</v>
+        <v>35201.86623104507</v>
       </c>
       <c r="Z156" t="n">
-        <v>536462.5536898994</v>
+        <v>533528.6583141799</v>
       </c>
       <c r="AA156" t="n">
-        <v>1130.50396620352</v>
+        <v>1124.321278640588</v>
       </c>
       <c r="AB156" t="n">
         <v>0</v>
@@ -17472,10 +17472,10 @@
         <v>0</v>
       </c>
       <c r="T157" t="n">
-        <v>13378688.93761707</v>
+        <v>11970600.56970741</v>
       </c>
       <c r="U157" t="n">
-        <v>50678396.81761707</v>
+        <v>49270308.44970742</v>
       </c>
       <c r="V157" t="n">
         <v>0</v>
@@ -17484,13 +17484,13 @@
         <v>37299707.88</v>
       </c>
       <c r="X157" t="n">
-        <v>13378688.93761707</v>
+        <v>11970600.56970741</v>
       </c>
       <c r="Y157" t="n">
-        <v>17563.96377027815</v>
+        <v>17541.93744966879</v>
       </c>
       <c r="Z157" t="n">
-        <v>237483.1501457883</v>
+        <v>236342.288579929</v>
       </c>
       <c r="AA157" t="n">
         <v>0</v>
@@ -17569,22 +17569,22 @@
         <v>0</v>
       </c>
       <c r="P158" t="n">
-        <v>24661208.5006009</v>
+        <v>24462946.31695069</v>
       </c>
       <c r="Q158" t="n">
-        <v>362050.2493328755</v>
+        <v>359139.5698735908</v>
       </c>
       <c r="R158" t="n">
-        <v>15413255.31487436</v>
+        <v>15289341.45007692</v>
       </c>
       <c r="S158" t="n">
-        <v>5271033.939092176</v>
+        <v>5228657.804166215</v>
       </c>
       <c r="T158" t="n">
-        <v>10464122.29900466</v>
+        <v>9362140.09803189</v>
       </c>
       <c r="U158" t="n">
-        <v>101008425.552905</v>
+        <v>99538980.48909929</v>
       </c>
       <c r="V158" t="n">
         <v>0</v>
@@ -17593,13 +17593,13 @@
         <v>44836755.25</v>
       </c>
       <c r="X158" t="n">
-        <v>56171670.30290497</v>
+        <v>54702225.23909931</v>
       </c>
       <c r="Y158" t="n">
-        <v>29014.03623296697</v>
+        <v>28914.47111728559</v>
       </c>
       <c r="Z158" t="n">
-        <v>142581.4717958436</v>
+        <v>141435.1973160015</v>
       </c>
       <c r="AA158" t="n">
         <v>0</v>
@@ -17690,10 +17690,10 @@
         <v>0</v>
       </c>
       <c r="T159" t="n">
-        <v>400682.0851483209</v>
+        <v>359867.9295567367</v>
       </c>
       <c r="U159" t="n">
-        <v>3249698.145148321</v>
+        <v>3208883.989556737</v>
       </c>
       <c r="V159" t="n">
         <v>0</v>
@@ -17702,13 +17702,13 @@
         <v>2849016.06</v>
       </c>
       <c r="X159" t="n">
-        <v>400682.0851483209</v>
+        <v>359867.9295567367</v>
       </c>
       <c r="Y159" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z159" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA159" t="n">
         <v>0</v>
@@ -17799,10 +17799,10 @@
         <v>0</v>
       </c>
       <c r="T160" t="n">
-        <v>2945130.638612407</v>
+        <v>2639024.471675524</v>
       </c>
       <c r="U160" t="n">
-        <v>11658362.63861241</v>
+        <v>11352256.47167552</v>
       </c>
       <c r="V160" t="n">
         <v>0</v>
@@ -17811,7 +17811,7 @@
         <v>8713232</v>
       </c>
       <c r="X160" t="n">
-        <v>2945130.638612407</v>
+        <v>2639024.471675524</v>
       </c>
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr"/>
@@ -17878,22 +17878,22 @@
         <v>0</v>
       </c>
       <c r="P161" t="n">
-        <v>15626021.16266545</v>
+        <v>15552173.88457808</v>
       </c>
       <c r="Q161" t="n">
         <v>0</v>
       </c>
       <c r="R161" t="n">
-        <v>9766263.226275254</v>
+        <v>9720108.677472495</v>
       </c>
       <c r="S161" t="n">
         <v>0</v>
       </c>
       <c r="T161" t="n">
-        <v>9210451.00098554</v>
+        <v>8251318.344583311</v>
       </c>
       <c r="U161" t="n">
-        <v>95123415.74992624</v>
+        <v>94044281.26663388</v>
       </c>
       <c r="V161" t="n">
         <v>0</v>
@@ -17902,13 +17902,13 @@
         <v>60520680.36</v>
       </c>
       <c r="X161" t="n">
-        <v>34602735.38992624</v>
+        <v>33523600.90663388</v>
       </c>
       <c r="Y161" t="n">
-        <v>44134.76005101384</v>
+        <v>43976.86324997637</v>
       </c>
       <c r="Z161" t="n">
-        <v>350499.7438930306</v>
+        <v>348843.3112165753</v>
       </c>
       <c r="AA161" t="n">
         <v>0</v>
@@ -17987,22 +17987,22 @@
         <v>0</v>
       </c>
       <c r="P162" t="n">
-        <v>52582541.39750174</v>
+        <v>52246668.5847481</v>
       </c>
       <c r="Q162" t="n">
         <v>0</v>
       </c>
       <c r="R162" t="n">
-        <v>32864088.36945647</v>
+        <v>32654167.86151089</v>
       </c>
       <c r="S162" t="n">
         <v>0</v>
       </c>
       <c r="T162" t="n">
-        <v>6826086.490095616</v>
+        <v>6111838.767242891</v>
       </c>
       <c r="U162" t="n">
-        <v>128412364.7070538</v>
+        <v>127152323.6635019</v>
       </c>
       <c r="V162" t="n">
         <v>0</v>
@@ -18011,13 +18011,13 @@
         <v>36139648.45</v>
       </c>
       <c r="X162" t="n">
-        <v>92272716.25705382</v>
+        <v>91012675.21350189</v>
       </c>
       <c r="Y162" t="n">
-        <v>36852.23791109599</v>
+        <v>37087.24793356486</v>
       </c>
       <c r="Z162" t="n">
-        <v>242096.9515667279</v>
+        <v>240550.5488649813</v>
       </c>
       <c r="AA162" t="n">
         <v>0</v>
@@ -18096,22 +18096,22 @@
         <v>0</v>
       </c>
       <c r="P163" t="n">
-        <v>1217837.456819797</v>
+        <v>1208046.731701269</v>
       </c>
       <c r="Q163" t="n">
-        <v>17879.0246584136</v>
+        <v>17735.28740116498</v>
       </c>
       <c r="R163" t="n">
-        <v>761148.4106110795</v>
+        <v>755029.2074112056</v>
       </c>
       <c r="S163" t="n">
-        <v>260297.9723008482</v>
+        <v>258205.3236625291</v>
       </c>
       <c r="T163" t="n">
-        <v>516746.7801977612</v>
+        <v>462327.9060756488</v>
       </c>
       <c r="U163" t="n">
-        <v>5178304.9345879</v>
+        <v>5105739.746251817</v>
       </c>
       <c r="V163" t="n">
         <v>0</v>
@@ -18120,13 +18120,13 @@
         <v>2404395.29</v>
       </c>
       <c r="X163" t="n">
-        <v>2773909.6445879</v>
+        <v>2701344.456251817</v>
       </c>
       <c r="Y163" t="n">
-        <v>29014.03623296697</v>
+        <v>28914.47111728559</v>
       </c>
       <c r="Z163" t="n">
-        <v>142581.4717958436</v>
+        <v>141435.1973160015</v>
       </c>
       <c r="AA163" t="n">
         <v>0</v>
@@ -18205,22 +18205,22 @@
         <v>0</v>
       </c>
       <c r="P164" t="n">
-        <v>1878033.403313773</v>
+        <v>1867912.121176659</v>
       </c>
       <c r="Q164" t="n">
-        <v>11229.2809012757</v>
+        <v>11168.7629573466</v>
       </c>
       <c r="R164" t="n">
-        <v>1173770.876904384</v>
+        <v>1167445.075569587</v>
       </c>
       <c r="S164" t="n">
-        <v>97414.49802034008</v>
+        <v>96889.5022364688</v>
       </c>
       <c r="T164" t="n">
-        <v>388682.0851483209</v>
+        <v>347867.9295567367</v>
       </c>
       <c r="U164" t="n">
-        <v>5753275.894288093</v>
+        <v>5695429.141496798</v>
       </c>
       <c r="V164" t="n">
         <v>0</v>
@@ -18229,13 +18229,13 @@
         <v>2204145.75</v>
       </c>
       <c r="X164" t="n">
-        <v>3549130.144288094</v>
+        <v>3491283.391496798</v>
       </c>
       <c r="Y164" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z164" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA164" t="n">
         <v>0</v>
@@ -18314,22 +18314,22 @@
         <v>0</v>
       </c>
       <c r="P165" t="n">
-        <v>1068152.407417725</v>
+        <v>1062494.623508253</v>
       </c>
       <c r="Q165" t="n">
-        <v>43118.19947943194</v>
+        <v>42889.81123303003</v>
       </c>
       <c r="R165" t="n">
-        <v>734354.7801263899</v>
+        <v>730465.0536884867</v>
       </c>
       <c r="S165" t="n">
-        <v>268373.2923637034</v>
+        <v>266951.7741564487</v>
       </c>
       <c r="T165" t="n">
-        <v>1327627.298019123</v>
+        <v>1184777.753448578</v>
       </c>
       <c r="U165" t="n">
-        <v>5929113.177406373</v>
+        <v>5775066.216034796</v>
       </c>
       <c r="V165" t="n">
         <v>0</v>
@@ -18338,16 +18338,16 @@
         <v>2487487.2</v>
       </c>
       <c r="X165" t="n">
-        <v>3441625.977406373</v>
+        <v>3287579.016034796</v>
       </c>
       <c r="Y165" t="n">
-        <v>12128.51976723833</v>
+        <v>12064.27748916241</v>
       </c>
       <c r="Z165" t="n">
-        <v>39563.96375428392</v>
+        <v>39354.40156449768</v>
       </c>
       <c r="AA165" t="n">
-        <v>2485.000017256944</v>
+        <v>2471.837482570848</v>
       </c>
       <c r="AB165" t="n">
         <v>0</v>
@@ -18423,22 +18423,22 @@
         <v>0</v>
       </c>
       <c r="P166" t="n">
-        <v>5508647.194023991</v>
+        <v>5473460.518402182</v>
       </c>
       <c r="Q166" t="n">
         <v>0</v>
       </c>
       <c r="R166" t="n">
-        <v>3442904.495847821</v>
+        <v>3420912.823586855</v>
       </c>
       <c r="S166" t="n">
         <v>0</v>
       </c>
       <c r="T166" t="n">
-        <v>715113.8227719218</v>
+        <v>640287.8708540172</v>
       </c>
       <c r="U166" t="n">
-        <v>13345230.09264373</v>
+        <v>13213225.79284305</v>
       </c>
       <c r="V166" t="n">
         <v>0</v>
@@ -18447,13 +18447,13 @@
         <v>3678564.58</v>
       </c>
       <c r="X166" t="n">
-        <v>9666665.512643734</v>
+        <v>9534661.212843053</v>
       </c>
       <c r="Y166" t="n">
-        <v>36852.23791109599</v>
+        <v>37087.24793356486</v>
       </c>
       <c r="Z166" t="n">
-        <v>242096.9515667279</v>
+        <v>240550.5488649813</v>
       </c>
       <c r="AA166" t="n">
         <v>0</v>
@@ -18532,22 +18532,22 @@
         <v>0</v>
       </c>
       <c r="P167" t="n">
-        <v>38708384.99943867</v>
+        <v>38499841.07645757</v>
       </c>
       <c r="Q167" t="n">
         <v>0</v>
       </c>
       <c r="R167" t="n">
-        <v>24192740.62432203</v>
+        <v>24062400.67246062</v>
       </c>
       <c r="S167" t="n">
-        <v>4780667.069146588</v>
+        <v>4754910.916698461</v>
       </c>
       <c r="T167" t="n">
-        <v>4435024.936631531</v>
+        <v>3986069.225124103</v>
       </c>
       <c r="U167" t="n">
-        <v>93504815.79953881</v>
+        <v>92691220.06074074</v>
       </c>
       <c r="V167" t="n">
         <v>0</v>
@@ -18556,16 +18556,16 @@
         <v>21387998.17</v>
       </c>
       <c r="X167" t="n">
-        <v>72116817.62953882</v>
+        <v>71303221.89074075</v>
       </c>
       <c r="Y167" t="n">
-        <v>55149.70687108663</v>
+        <v>55269.62952789497</v>
       </c>
       <c r="Z167" t="n">
-        <v>322093.5736638703</v>
+        <v>320358.2737431985</v>
       </c>
       <c r="AA167" t="n">
-        <v>136406.7128241111</v>
+        <v>133532.295101264</v>
       </c>
       <c r="AB167" t="n">
         <v>0</v>
@@ -18641,22 +18641,22 @@
         <v>0</v>
       </c>
       <c r="P168" t="n">
-        <v>2191038.970532735</v>
+        <v>2179230.808039436</v>
       </c>
       <c r="Q168" t="n">
-        <v>13100.82771815498</v>
+        <v>13030.2234502377</v>
       </c>
       <c r="R168" t="n">
-        <v>1369399.356388449</v>
+        <v>1362019.254831185</v>
       </c>
       <c r="S168" t="n">
-        <v>113650.2476903967</v>
+        <v>113037.7526092136</v>
       </c>
       <c r="T168" t="n">
-        <v>453462.4326730411</v>
+        <v>405845.9178161927</v>
       </c>
       <c r="U168" t="n">
-        <v>6635165.835002775</v>
+        <v>6567677.956746265</v>
       </c>
       <c r="V168" t="n">
         <v>0</v>
@@ -18665,13 +18665,13 @@
         <v>2494514</v>
       </c>
       <c r="X168" t="n">
-        <v>4140651.835002776</v>
+        <v>4073163.956746265</v>
       </c>
       <c r="Y168" t="n">
-        <v>42784.16192138716</v>
+        <v>43098.53624551204</v>
       </c>
       <c r="Z168" t="n">
-        <v>308787.5429725378</v>
+        <v>307123.3948070491</v>
       </c>
       <c r="AA168" t="n">
         <v>0</v>
@@ -18762,10 +18762,10 @@
         <v>0</v>
       </c>
       <c r="T169" t="n">
-        <v>1869849.730692164</v>
+        <v>1679383.671264771</v>
       </c>
       <c r="U169" t="n">
-        <v>17430972.85069216</v>
+        <v>17240506.79126477</v>
       </c>
       <c r="V169" t="n">
         <v>0</v>
@@ -18774,13 +18774,13 @@
         <v>15561123.12</v>
       </c>
       <c r="X169" t="n">
-        <v>1869849.730692164</v>
+        <v>1679383.671264771</v>
       </c>
       <c r="Y169" t="n">
-        <v>532908.0250253493</v>
+        <v>531604.5767376211</v>
       </c>
       <c r="Z169" t="n">
-        <v>287877.1817775176</v>
+        <v>287162.1600337628</v>
       </c>
       <c r="AA169" t="n">
         <v>0</v>
@@ -18859,22 +18859,22 @@
         <v>0</v>
       </c>
       <c r="P170" t="n">
-        <v>712101.60494515</v>
+        <v>708329.7490055023</v>
       </c>
       <c r="Q170" t="n">
-        <v>28745.46631962129</v>
+        <v>28593.20748868668</v>
       </c>
       <c r="R170" t="n">
-        <v>489569.8534175933</v>
+        <v>486976.7024589911</v>
       </c>
       <c r="S170" t="n">
-        <v>178915.5282424689</v>
+        <v>177967.8494376324</v>
       </c>
       <c r="T170" t="n">
-        <v>885084.8653460821</v>
+        <v>789851.8356323853</v>
       </c>
       <c r="U170" t="n">
-        <v>3952742.118270915</v>
+        <v>3850044.144023198</v>
       </c>
       <c r="V170" t="n">
         <v>0</v>
@@ -18883,16 +18883,16 @@
         <v>1658324.8</v>
       </c>
       <c r="X170" t="n">
-        <v>2294417.318270916</v>
+        <v>2191719.344023198</v>
       </c>
       <c r="Y170" t="n">
-        <v>12128.51976723833</v>
+        <v>12064.27748916241</v>
       </c>
       <c r="Z170" t="n">
-        <v>39563.96375428392</v>
+        <v>39354.40156449768</v>
       </c>
       <c r="AA170" t="n">
-        <v>2485.000017256944</v>
+        <v>2471.837482570848</v>
       </c>
       <c r="AB170" t="n">
         <v>0</v>
